--- a/data/task_3_6.xlsx
+++ b/data/task_3_6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\OneDrive\Ambiente de Trabalho\Programção\SolverS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89484B89-EA25-4677-A9CA-1E7BB5AD82C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26FFB9E-770C-4E96-A38C-D68518525364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -940,8 +940,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AB135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62:C135"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Y137" sqref="Y137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1109,14 +1109,14 @@
         <v>45</v>
       </c>
       <c r="Z2">
-        <f t="shared" ref="Z2:Z33" si="0">COUNTIF(Y:Y,Y2)</f>
+        <f>COUNTIF(Y:Y,Y2)</f>
         <v>1</v>
       </c>
       <c r="AA2">
         <v>30</v>
       </c>
       <c r="AB2">
-        <f t="shared" ref="AB2:AB51" si="1">IF(R2="OK",AA2,AA2*2)</f>
+        <f t="shared" ref="AB2:AB51" si="0">IF(R2="OK",AA2,AA2*2)</f>
         <v>60</v>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="2">H3*0.7</f>
+        <f t="shared" ref="I3:I66" si="1">H3*0.7</f>
         <v>0.34999985396862027</v>
       </c>
       <c r="J3" s="3"/>
@@ -1176,14 +1176,14 @@
         <v>46</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y3)</f>
         <v>1</v>
       </c>
       <c r="AA3">
         <v>30</v>
       </c>
       <c r="AB3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="J4" s="3"/>
@@ -1243,14 +1243,14 @@
         <v>47</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y4)</f>
         <v>1</v>
       </c>
       <c r="AA4">
         <v>30</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
         <v>1.0000019967556</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J5" s="3"/>
@@ -1310,18 +1310,18 @@
         <v>48</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y5)</f>
         <v>1</v>
       </c>
       <c r="AA5">
         <v>30</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:28" hidden="1">
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="J6" s="3"/>
@@ -1377,18 +1377,18 @@
         <v>49</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y6)</f>
         <v>3</v>
       </c>
       <c r="AA6">
         <v>10</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" hidden="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>1.9999979138374329</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.3999985396862029</v>
       </c>
       <c r="J7" s="3"/>
@@ -1444,18 +1444,18 @@
         <v>50</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y7)</f>
         <v>3</v>
       </c>
       <c r="AA7">
         <v>30</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:28" hidden="1">
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>1.0000019967556</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J8" s="3"/>
@@ -1511,18 +1511,18 @@
         <v>51</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y8)</f>
         <v>3</v>
       </c>
       <c r="AA8">
         <v>10</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" hidden="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J9" s="3"/>
@@ -1578,14 +1578,14 @@
         <v>52</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y9)</f>
         <v>3</v>
       </c>
       <c r="AA9">
         <v>10</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J10" s="3"/>
@@ -1645,14 +1645,14 @@
         <v>53</v>
       </c>
       <c r="Z10">
+        <f>COUNTIF(Y:Y,Y10)</f>
+        <v>2</v>
+      </c>
+      <c r="AA10">
+        <v>20</v>
+      </c>
+      <c r="AB10">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AA10">
-        <v>20</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
         <v>1.0000019967556</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J11" s="3"/>
@@ -1712,14 +1712,14 @@
         <v>54</v>
       </c>
       <c r="Z11">
+        <f>COUNTIF(Y:Y,Y11)</f>
+        <v>2</v>
+      </c>
+      <c r="AA11">
+        <v>20</v>
+      </c>
+      <c r="AB11">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AA11">
-        <v>20</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
         <v>1.9999979138374329</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.3999985396862029</v>
       </c>
       <c r="J12" s="3"/>
@@ -1779,14 +1779,14 @@
         <v>55</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y12)</f>
         <v>1</v>
       </c>
       <c r="AA12">
         <v>10</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
         <v>1.5</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="J13" s="3"/>
@@ -1846,14 +1846,14 @@
         <v>56</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y13)</f>
         <v>1</v>
       </c>
       <c r="AA13">
         <v>10</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
         <v>1.9999979138374329</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.3999985396862029</v>
       </c>
       <c r="J14" s="3"/>
@@ -1913,18 +1913,18 @@
         <v>57</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y14)</f>
         <v>1</v>
       </c>
       <c r="AA14">
         <v>10</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" hidden="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>38</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>3</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="J15" s="3"/>
@@ -1980,18 +1980,18 @@
         <v>49</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y15)</f>
         <v>3</v>
       </c>
       <c r="AA15">
         <v>10</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" hidden="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>39</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>1.9999979138374329</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.3999985396862029</v>
       </c>
       <c r="J16" s="3"/>
@@ -2047,18 +2047,18 @@
         <v>50</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y16)</f>
         <v>3</v>
       </c>
       <c r="AA16">
         <v>30</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:28" hidden="1">
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>40</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>1.0000019967556</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J17" s="3"/>
@@ -2114,18 +2114,18 @@
         <v>51</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y17)</f>
         <v>3</v>
       </c>
       <c r="AA17">
         <v>10</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" hidden="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>41</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J18" s="3"/>
@@ -2181,18 +2181,18 @@
         <v>52</v>
       </c>
       <c r="Z18">
+        <f>COUNTIF(Y:Y,Y18)</f>
+        <v>3</v>
+      </c>
+      <c r="AA18">
+        <v>20</v>
+      </c>
+      <c r="AB18">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AA18">
-        <v>20</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:28" hidden="1">
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>78</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>3</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="J19" s="3"/>
@@ -2248,18 +2248,18 @@
         <v>49</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y19)</f>
         <v>3</v>
       </c>
       <c r="AA19">
         <v>10</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" hidden="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>79</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>1.9999979138374329</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.3999985396862029</v>
       </c>
       <c r="J20" s="3"/>
@@ -2315,18 +2315,18 @@
         <v>50</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y20)</f>
         <v>3</v>
       </c>
       <c r="AA20">
         <v>10</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" hidden="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>80</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>1.0000019967556</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J21" s="3"/>
@@ -2382,18 +2382,18 @@
         <v>51</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y21)</f>
         <v>3</v>
       </c>
       <c r="AA21">
         <v>10</v>
       </c>
       <c r="AB21">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" hidden="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>81</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J22" s="3"/>
@@ -2449,14 +2449,14 @@
         <v>52</v>
       </c>
       <c r="Z22">
+        <f>COUNTIF(Y:Y,Y22)</f>
+        <v>3</v>
+      </c>
+      <c r="AA22">
+        <v>20</v>
+      </c>
+      <c r="AB22">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AA22">
-        <v>20</v>
-      </c>
-      <c r="AB22">
-        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -2483,7 +2483,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J23" s="3"/>
@@ -2516,14 +2516,14 @@
         <v>53</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y23)</f>
         <v>2</v>
       </c>
       <c r="AA23">
         <v>30</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -2550,7 +2550,7 @@
         <v>1.0000019967556</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J24" s="3"/>
@@ -2583,18 +2583,18 @@
         <v>54</v>
       </c>
       <c r="Z24">
+        <f>COUNTIF(Y:Y,Y24)</f>
+        <v>2</v>
+      </c>
+      <c r="AA24">
+        <v>20</v>
+      </c>
+      <c r="AB24">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AA24">
-        <v>20</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:28" hidden="1">
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>84</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>1.5</v>
       </c>
       <c r="I25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="J25" s="3"/>
@@ -2650,18 +2650,18 @@
         <v>58</v>
       </c>
       <c r="Z25">
+        <f>COUNTIF(Y:Y,Y25)</f>
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>20</v>
+      </c>
+      <c r="AB25">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AA25">
-        <v>20</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:28" hidden="1">
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>85</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J26" s="3"/>
@@ -2717,18 +2717,18 @@
         <v>59</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y26)</f>
         <v>1</v>
       </c>
       <c r="AA26">
         <v>30</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:28" hidden="1">
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>37</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>1.0000019967556</v>
       </c>
       <c r="I27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J27" s="3"/>
@@ -2784,18 +2784,18 @@
         <v>60</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y27)</f>
         <v>2</v>
       </c>
       <c r="AA27">
         <v>10</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" hidden="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>56</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>1.0000019967556</v>
       </c>
       <c r="I28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J28" s="3"/>
@@ -2851,14 +2851,14 @@
         <v>60</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y28)</f>
         <v>2</v>
       </c>
       <c r="AA28">
         <v>10</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
         <v>4.5</v>
       </c>
       <c r="I29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.15</v>
       </c>
       <c r="J29" s="3"/>
@@ -2918,14 +2918,14 @@
         <v>61</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y29)</f>
         <v>1</v>
       </c>
       <c r="AA29">
         <v>10</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -2952,7 +2952,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J30" s="3"/>
@@ -2985,14 +2985,14 @@
         <v>62</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y30)</f>
         <v>1</v>
       </c>
       <c r="AA30">
         <v>30</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
         <v>1.0000019967556</v>
       </c>
       <c r="I31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J31" s="3"/>
@@ -3052,14 +3052,14 @@
         <v>63</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y31)</f>
         <v>1</v>
       </c>
       <c r="AA31">
         <v>10</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
         <v>1.5</v>
       </c>
       <c r="I32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="J32" s="3"/>
@@ -3119,14 +3119,14 @@
         <v>64</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Y:Y,Y32)</f>
         <v>1</v>
       </c>
       <c r="AA32">
         <v>10</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
         <v>1.9999979138374329</v>
       </c>
       <c r="I33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.3999985396862029</v>
       </c>
       <c r="J33" s="3"/>
@@ -3186,14 +3186,14 @@
         <v>65</v>
       </c>
       <c r="Z33">
+        <f>COUNTIF(Y:Y,Y33)</f>
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>20</v>
+      </c>
+      <c r="AB33">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AA33">
-        <v>20</v>
-      </c>
-      <c r="AB33">
-        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -3220,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="I34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="J34" s="3"/>
@@ -3253,14 +3253,14 @@
         <v>66</v>
       </c>
       <c r="Z34">
-        <f t="shared" ref="Z34:Z65" si="3">COUNTIF(Y:Y,Y34)</f>
+        <f>COUNTIF(Y:Y,Y34)</f>
         <v>1</v>
       </c>
       <c r="AA34">
         <v>20</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
         <v>0.19999980926513672</v>
       </c>
       <c r="I35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.1399998664855957</v>
       </c>
       <c r="J35" s="3"/>
@@ -3320,14 +3320,14 @@
         <v>67</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y35)</f>
         <v>1</v>
       </c>
       <c r="AA35">
         <v>20</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
         <v>1.9999979138374329</v>
       </c>
       <c r="I36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.3999985396862029</v>
       </c>
       <c r="J36" s="3"/>
@@ -3387,14 +3387,14 @@
         <v>68</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y36)</f>
         <v>1</v>
       </c>
       <c r="AA36">
         <v>10</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
         <v>0.19999980926513672</v>
       </c>
       <c r="I37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.1399998664855957</v>
       </c>
       <c r="J37" s="3"/>
@@ -3454,14 +3454,14 @@
         <v>69</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y37)</f>
         <v>1</v>
       </c>
       <c r="AA37">
         <v>20</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
         <v>1.0000019967556</v>
       </c>
       <c r="I38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J38" s="3"/>
@@ -3521,14 +3521,14 @@
         <v>70</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y38)</f>
         <v>1</v>
       </c>
       <c r="AA38">
         <v>10</v>
       </c>
       <c r="AB38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -3555,7 +3555,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J39" s="3"/>
@@ -3588,14 +3588,14 @@
         <v>71</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y39)</f>
         <v>1</v>
       </c>
       <c r="AA39">
         <v>10</v>
       </c>
       <c r="AB39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -3622,7 +3622,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J40" s="3"/>
@@ -3655,14 +3655,14 @@
         <v>72</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y40)</f>
         <v>1</v>
       </c>
       <c r="AA40">
         <v>20</v>
       </c>
       <c r="AB40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J41" s="3"/>
@@ -3722,14 +3722,14 @@
         <v>73</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y41)</f>
         <v>2</v>
       </c>
       <c r="AA41">
         <v>10</v>
       </c>
       <c r="AB41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -3756,7 +3756,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J42" s="3"/>
@@ -3789,14 +3789,14 @@
         <v>73</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y42)</f>
         <v>2</v>
       </c>
       <c r="AA42">
         <v>20</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -3823,7 +3823,7 @@
         <v>0.30000000447034836</v>
       </c>
       <c r="I43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.21000000312924383</v>
       </c>
       <c r="J43" s="3"/>
@@ -3856,14 +3856,14 @@
         <v>74</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y43)</f>
         <v>2</v>
       </c>
       <c r="AA43">
         <v>10</v>
       </c>
       <c r="AB43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -3890,7 +3890,7 @@
         <v>0.30000000447034836</v>
       </c>
       <c r="I44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.21000000312924383</v>
       </c>
       <c r="J44" s="3"/>
@@ -3923,14 +3923,14 @@
         <v>75</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y44)</f>
         <v>2</v>
       </c>
       <c r="AA44">
         <v>30</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
         <v>0.30000000447034836</v>
       </c>
       <c r="I45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.21000000312924383</v>
       </c>
       <c r="J45" s="3"/>
@@ -3990,14 +3990,14 @@
         <v>76</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y45)</f>
         <v>2</v>
       </c>
       <c r="AA45">
         <v>10</v>
       </c>
       <c r="AB45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -4024,7 +4024,7 @@
         <v>0.30000000447034836</v>
       </c>
       <c r="I46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.21000000312924383</v>
       </c>
       <c r="J46" s="3"/>
@@ -4057,14 +4057,14 @@
         <v>77</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y46)</f>
         <v>2</v>
       </c>
       <c r="AA46">
         <v>10</v>
       </c>
       <c r="AB46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
         <v>0.30000000447034836</v>
       </c>
       <c r="I47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.21000000312924383</v>
       </c>
       <c r="J47" s="3"/>
@@ -4124,14 +4124,14 @@
         <v>74</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y47)</f>
         <v>2</v>
       </c>
       <c r="AA47">
         <v>30</v>
       </c>
       <c r="AB47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -4158,7 +4158,7 @@
         <v>0.30000000447034836</v>
       </c>
       <c r="I48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.21000000312924383</v>
       </c>
       <c r="J48" s="3"/>
@@ -4191,14 +4191,14 @@
         <v>75</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y48)</f>
         <v>2</v>
       </c>
       <c r="AA48">
         <v>10</v>
       </c>
       <c r="AB48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -4225,7 +4225,7 @@
         <v>0.30000000447034836</v>
       </c>
       <c r="I49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.21000000312924383</v>
       </c>
       <c r="J49" s="3"/>
@@ -4258,14 +4258,14 @@
         <v>76</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y49)</f>
         <v>2</v>
       </c>
       <c r="AA49">
         <v>10</v>
       </c>
       <c r="AB49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -4292,7 +4292,7 @@
         <v>0.30000000447034836</v>
       </c>
       <c r="I50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.21000000312924383</v>
       </c>
       <c r="J50" s="3"/>
@@ -4325,14 +4325,14 @@
         <v>77</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y50)</f>
         <v>2</v>
       </c>
       <c r="AA50">
         <v>10</v>
       </c>
       <c r="AB50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J51" s="3"/>
@@ -4392,14 +4392,14 @@
         <v>78</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y51)</f>
         <v>1</v>
       </c>
       <c r="AA51">
         <v>10</v>
       </c>
       <c r="AB51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -4426,7 +4426,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J52" s="3"/>
@@ -4459,14 +4459,14 @@
         <v>79</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y52)</f>
         <v>1</v>
       </c>
       <c r="AA52">
         <v>10</v>
       </c>
       <c r="AB52">
-        <f t="shared" ref="AB52:AB100" si="4">IF(R52="OK",AA52,AA52*2)</f>
+        <f t="shared" ref="AB52:AB100" si="2">IF(R52="OK",AA52,AA52*2)</f>
         <v>20</v>
       </c>
     </row>
@@ -4493,7 +4493,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J53" s="3"/>
@@ -4526,14 +4526,14 @@
         <v>80</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y53)</f>
         <v>1</v>
       </c>
       <c r="AA53">
         <v>10</v>
       </c>
       <c r="AB53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -4560,7 +4560,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J54" s="3"/>
@@ -4593,14 +4593,14 @@
         <v>81</v>
       </c>
       <c r="Z54">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y54)</f>
         <v>1</v>
       </c>
       <c r="AA54">
         <v>30</v>
       </c>
       <c r="AB54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J55" s="3"/>
@@ -4660,14 +4660,14 @@
         <v>82</v>
       </c>
       <c r="Z55">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y55)</f>
         <v>1</v>
       </c>
       <c r="AA55">
         <v>10</v>
       </c>
       <c r="AB55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -4694,7 +4694,7 @@
         <v>1.0000019967556</v>
       </c>
       <c r="I56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J56" s="3"/>
@@ -4727,14 +4727,14 @@
         <v>83</v>
       </c>
       <c r="Z56">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y56)</f>
         <v>2</v>
       </c>
       <c r="AA56">
         <v>10</v>
       </c>
       <c r="AB56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
         <v>1.0000019967556</v>
       </c>
       <c r="I57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J57" s="3"/>
@@ -4794,14 +4794,14 @@
         <v>84</v>
       </c>
       <c r="Z57">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y57)</f>
         <v>2</v>
       </c>
       <c r="AA57">
         <v>10</v>
       </c>
       <c r="AB57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -4828,7 +4828,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J58" s="3"/>
@@ -4861,14 +4861,14 @@
         <v>85</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y58)</f>
         <v>2</v>
       </c>
       <c r="AA58">
         <v>10</v>
       </c>
       <c r="AB58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -4895,7 +4895,7 @@
         <v>1.0000019967556</v>
       </c>
       <c r="I59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J59" s="3"/>
@@ -4928,14 +4928,14 @@
         <v>83</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y59)</f>
         <v>2</v>
       </c>
       <c r="AA59">
         <v>10</v>
       </c>
       <c r="AB59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -4962,7 +4962,7 @@
         <v>1.0000019967556</v>
       </c>
       <c r="I60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J60" s="3"/>
@@ -4995,14 +4995,14 @@
         <v>84</v>
       </c>
       <c r="Z60">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y60)</f>
         <v>2</v>
       </c>
       <c r="AA60">
         <v>10</v>
       </c>
       <c r="AB60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -5029,7 +5029,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J61" s="3"/>
@@ -5062,18 +5062,18 @@
         <v>85</v>
       </c>
       <c r="Z61">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y61)</f>
         <v>2</v>
       </c>
       <c r="AA61">
         <v>10</v>
       </c>
       <c r="AB61">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" hidden="1">
       <c r="A62">
         <v>15</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J62" s="3"/>
@@ -5129,18 +5129,18 @@
         <v>86</v>
       </c>
       <c r="Z62">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y62)</f>
         <v>3</v>
       </c>
       <c r="AA62">
         <v>20</v>
       </c>
       <c r="AB62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:28" hidden="1">
       <c r="A63">
         <v>16</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J63" s="3"/>
@@ -5196,18 +5196,18 @@
         <v>87</v>
       </c>
       <c r="Z63">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y63)</f>
         <v>2</v>
       </c>
       <c r="AA63">
         <v>20</v>
       </c>
       <c r="AB63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:28" hidden="1">
       <c r="A64">
         <v>17</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>1.0000019967556</v>
       </c>
       <c r="I64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J64" s="3"/>
@@ -5263,18 +5263,18 @@
         <v>88</v>
       </c>
       <c r="Z64">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y64)</f>
         <v>1</v>
       </c>
       <c r="AA64">
         <v>20</v>
       </c>
       <c r="AB64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:28" hidden="1">
       <c r="A65">
         <v>18</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J65" s="3"/>
@@ -5330,18 +5330,18 @@
         <v>89</v>
       </c>
       <c r="Z65">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(Y:Y,Y65)</f>
         <v>1</v>
       </c>
       <c r="AA65">
         <v>20</v>
       </c>
       <c r="AB65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:28" hidden="1">
       <c r="A66">
         <v>19</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J66" s="3"/>
@@ -5397,18 +5397,18 @@
         <v>90</v>
       </c>
       <c r="Z66">
-        <f t="shared" ref="Z66:Z97" si="5">COUNTIF(Y:Y,Y66)</f>
+        <f>COUNTIF(Y:Y,Y66)</f>
         <v>1</v>
       </c>
       <c r="AA66">
         <v>10</v>
       </c>
       <c r="AB66">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" hidden="1">
       <c r="A67">
         <v>51</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" si="6">H67*0.7</f>
+        <f t="shared" ref="I67:I130" si="3">H67*0.7</f>
         <v>0.34999985396862027</v>
       </c>
       <c r="J67" s="3"/>
@@ -5464,18 +5464,18 @@
         <v>86</v>
       </c>
       <c r="Z67">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y67)</f>
         <v>3</v>
       </c>
       <c r="AA67">
         <v>10</v>
       </c>
       <c r="AB67">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" hidden="1">
       <c r="A68">
         <v>89</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J68" s="3"/>
@@ -5531,18 +5531,18 @@
         <v>86</v>
       </c>
       <c r="Z68">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y68)</f>
         <v>3</v>
       </c>
       <c r="AA68">
         <v>20</v>
       </c>
       <c r="AB68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:28" hidden="1">
       <c r="A69">
         <v>90</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J69" s="3"/>
@@ -5598,18 +5598,18 @@
         <v>87</v>
       </c>
       <c r="Z69">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y69)</f>
         <v>2</v>
       </c>
       <c r="AA69">
         <v>20</v>
       </c>
       <c r="AB69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:28" hidden="1">
       <c r="A70">
         <v>91</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>0.19999980926513672</v>
       </c>
       <c r="I70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.1399998664855957</v>
       </c>
       <c r="J70" s="3"/>
@@ -5665,14 +5665,14 @@
         <v>91</v>
       </c>
       <c r="Z70">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y70)</f>
         <v>1</v>
       </c>
       <c r="AA70">
         <v>20</v>
       </c>
       <c r="AB70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
@@ -5699,7 +5699,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J71" s="3"/>
@@ -5732,14 +5732,14 @@
         <v>92</v>
       </c>
       <c r="Z71">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y71)</f>
         <v>1</v>
       </c>
       <c r="AA71">
         <v>10</v>
       </c>
       <c r="AB71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -5766,7 +5766,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J72" s="3"/>
@@ -5799,14 +5799,14 @@
         <v>93</v>
       </c>
       <c r="Z72">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y72)</f>
         <v>1</v>
       </c>
       <c r="AA72">
         <v>10</v>
       </c>
       <c r="AB72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -5833,7 +5833,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J73" s="3"/>
@@ -5866,14 +5866,14 @@
         <v>94</v>
       </c>
       <c r="Z73">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y73)</f>
         <v>1</v>
       </c>
       <c r="AA73">
         <v>10</v>
       </c>
       <c r="AB73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -5900,7 +5900,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J74" s="3"/>
@@ -5933,14 +5933,14 @@
         <v>95</v>
       </c>
       <c r="Z74">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y74)</f>
         <v>1</v>
       </c>
       <c r="AA74">
         <v>30</v>
       </c>
       <c r="AB74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
@@ -5967,7 +5967,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J75" s="3"/>
@@ -6000,14 +6000,14 @@
         <v>96</v>
       </c>
       <c r="Z75">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y75)</f>
         <v>1</v>
       </c>
       <c r="AA75">
         <v>10</v>
       </c>
       <c r="AB75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -6034,7 +6034,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J76" s="3"/>
@@ -6067,14 +6067,14 @@
         <v>97</v>
       </c>
       <c r="Z76">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y76)</f>
         <v>1</v>
       </c>
       <c r="AA76">
         <v>10</v>
       </c>
       <c r="AB76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -6101,7 +6101,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J77" s="3"/>
@@ -6134,14 +6134,14 @@
         <v>98</v>
       </c>
       <c r="Z77">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y77)</f>
         <v>1</v>
       </c>
       <c r="AA77">
         <v>10</v>
       </c>
       <c r="AB77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -6168,7 +6168,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J78" s="3"/>
@@ -6201,14 +6201,14 @@
         <v>99</v>
       </c>
       <c r="Z78">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y78)</f>
         <v>1</v>
       </c>
       <c r="AA78">
         <v>10</v>
       </c>
       <c r="AB78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -6235,7 +6235,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J79" s="3"/>
@@ -6268,14 +6268,14 @@
         <v>100</v>
       </c>
       <c r="Z79">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y79)</f>
         <v>1</v>
       </c>
       <c r="AA79">
         <v>10</v>
       </c>
       <c r="AB79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -6302,7 +6302,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J80" s="3"/>
@@ -6335,14 +6335,14 @@
         <v>101</v>
       </c>
       <c r="Z80">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y80)</f>
         <v>1</v>
       </c>
       <c r="AA80">
         <v>10</v>
       </c>
       <c r="AB80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J81" s="3"/>
@@ -6402,14 +6402,14 @@
         <v>102</v>
       </c>
       <c r="Z81">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y81)</f>
         <v>1</v>
       </c>
       <c r="AA81">
         <v>30</v>
       </c>
       <c r="AB81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
@@ -6436,7 +6436,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J82" s="3"/>
@@ -6469,14 +6469,14 @@
         <v>103</v>
       </c>
       <c r="Z82">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y82)</f>
         <v>1</v>
       </c>
       <c r="AA82">
         <v>30</v>
       </c>
       <c r="AB82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
@@ -6503,7 +6503,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J83" s="3"/>
@@ -6536,14 +6536,14 @@
         <v>104</v>
       </c>
       <c r="Z83">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y83)</f>
         <v>1</v>
       </c>
       <c r="AA83">
         <v>30</v>
       </c>
       <c r="AB83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
@@ -6570,7 +6570,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J84" s="3"/>
@@ -6603,14 +6603,14 @@
         <v>105</v>
       </c>
       <c r="Z84">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y84)</f>
         <v>1</v>
       </c>
       <c r="AA84">
         <v>10</v>
       </c>
       <c r="AB84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -6637,7 +6637,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J85" s="3"/>
@@ -6670,14 +6670,14 @@
         <v>106</v>
       </c>
       <c r="Z85">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y85)</f>
         <v>1</v>
       </c>
       <c r="AA85">
         <v>10</v>
       </c>
       <c r="AB85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -6704,7 +6704,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J86" s="3"/>
@@ -6737,14 +6737,14 @@
         <v>107</v>
       </c>
       <c r="Z86">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y86)</f>
         <v>1</v>
       </c>
       <c r="AA86">
         <v>10</v>
       </c>
       <c r="AB86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -6771,7 +6771,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J87" s="3"/>
@@ -6804,14 +6804,14 @@
         <v>108</v>
       </c>
       <c r="Z87">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y87)</f>
         <v>1</v>
       </c>
       <c r="AA87">
         <v>10</v>
       </c>
       <c r="AB87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J88" s="3"/>
@@ -6871,14 +6871,14 @@
         <v>109</v>
       </c>
       <c r="Z88">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y88)</f>
         <v>1</v>
       </c>
       <c r="AA88">
         <v>10</v>
       </c>
       <c r="AB88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -6905,7 +6905,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J89" s="3"/>
@@ -6938,14 +6938,14 @@
         <v>110</v>
       </c>
       <c r="Z89">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y89)</f>
         <v>1</v>
       </c>
       <c r="AA89">
         <v>30</v>
       </c>
       <c r="AB89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="S90" t="b">
@@ -6997,14 +6997,14 @@
         <v>111</v>
       </c>
       <c r="Z90">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y90)</f>
         <v>1</v>
       </c>
       <c r="AA90">
         <v>10</v>
       </c>
       <c r="AB90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="S91" t="b">
@@ -7056,14 +7056,14 @@
         <v>112</v>
       </c>
       <c r="Z91">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y91)</f>
         <v>1</v>
       </c>
       <c r="AA91">
         <v>10</v>
       </c>
       <c r="AB91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -7090,7 +7090,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="S92" t="b">
@@ -7115,14 +7115,14 @@
         <v>113</v>
       </c>
       <c r="Z92">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y92)</f>
         <v>1</v>
       </c>
       <c r="AA92">
         <v>10</v>
       </c>
       <c r="AB92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -7149,7 +7149,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="S93" t="b">
@@ -7174,14 +7174,14 @@
         <v>114</v>
       </c>
       <c r="Z93">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y93)</f>
         <v>1</v>
       </c>
       <c r="AA93">
         <v>10</v>
       </c>
       <c r="AB93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -7208,7 +7208,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="S94" t="b">
@@ -7233,14 +7233,14 @@
         <v>115</v>
       </c>
       <c r="Z94">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y94)</f>
         <v>1</v>
       </c>
       <c r="AA94">
         <v>10</v>
       </c>
       <c r="AB94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -7267,7 +7267,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="S95" t="b">
@@ -7292,14 +7292,14 @@
         <v>116</v>
       </c>
       <c r="Z95">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y95)</f>
         <v>1</v>
       </c>
       <c r="AA95">
         <v>10</v>
       </c>
       <c r="AB95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -7326,7 +7326,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="S96" t="b">
@@ -7351,14 +7351,14 @@
         <v>117</v>
       </c>
       <c r="Z96">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y96)</f>
         <v>1</v>
       </c>
       <c r="AA96">
         <v>30</v>
       </c>
       <c r="AB96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
@@ -7385,7 +7385,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="S97" t="b">
@@ -7410,14 +7410,14 @@
         <v>118</v>
       </c>
       <c r="Z97">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(Y:Y,Y97)</f>
         <v>1</v>
       </c>
       <c r="AA97">
         <v>30</v>
       </c>
       <c r="AB97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
@@ -7444,7 +7444,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="S98" t="b">
@@ -7469,14 +7469,14 @@
         <v>119</v>
       </c>
       <c r="Z98">
-        <f t="shared" ref="Z98:Z100" si="7">COUNTIF(Y:Y,Y98)</f>
+        <f>COUNTIF(Y:Y,Y98)</f>
         <v>1</v>
       </c>
       <c r="AA98">
         <v>30</v>
       </c>
       <c r="AB98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
@@ -7503,7 +7503,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="S99" t="b">
@@ -7528,14 +7528,14 @@
         <v>120</v>
       </c>
       <c r="Z99">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(Y:Y,Y99)</f>
         <v>1</v>
       </c>
       <c r="AA99">
         <v>10</v>
       </c>
       <c r="AB99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -7562,7 +7562,7 @@
         <v>0.10000019520521164</v>
       </c>
       <c r="I100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="S100" t="b">
@@ -7587,14 +7587,14 @@
         <v>121</v>
       </c>
       <c r="Z100">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(Y:Y,Y100)</f>
         <v>1</v>
       </c>
       <c r="AA100">
         <v>10</v>
       </c>
       <c r="AB100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -7621,7 +7621,7 @@
         <v>3</v>
       </c>
       <c r="I101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="J101" s="3"/>
@@ -7686,7 +7686,7 @@
         <v>1.9999979138374329</v>
       </c>
       <c r="I102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.3999985396862029</v>
       </c>
       <c r="J102" s="3"/>
@@ -7751,7 +7751,7 @@
         <v>1.0000019967556</v>
       </c>
       <c r="I103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J103" s="3"/>
@@ -7816,7 +7816,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J104" s="3"/>
@@ -7881,7 +7881,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J105" s="3"/>
@@ -7946,7 +7946,7 @@
         <v>1.0000019967556</v>
       </c>
       <c r="I106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J106" s="3"/>
@@ -8011,7 +8011,7 @@
         <v>1.9999979138374329</v>
       </c>
       <c r="I107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.3999985396862029</v>
       </c>
       <c r="J107" s="3"/>
@@ -8076,7 +8076,7 @@
         <v>1.5</v>
       </c>
       <c r="I108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="J108" s="3"/>
@@ -8141,7 +8141,7 @@
         <v>1.9999979138374329</v>
       </c>
       <c r="I109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.3999985396862029</v>
       </c>
       <c r="J109" s="3"/>
@@ -8206,7 +8206,7 @@
         <v>3</v>
       </c>
       <c r="I110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="S110" t="b">
@@ -8263,7 +8263,7 @@
         <v>1.5</v>
       </c>
       <c r="I111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="S111" t="b">
@@ -8320,7 +8320,7 @@
         <v>1.5</v>
       </c>
       <c r="I112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="S112" t="b">
@@ -8377,7 +8377,7 @@
         <v>1.9999979138374331</v>
       </c>
       <c r="I113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.3999985396862031</v>
       </c>
       <c r="S113" t="b">
@@ -8434,7 +8434,7 @@
         <v>3</v>
       </c>
       <c r="I114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="S114" t="b">
@@ -8491,7 +8491,7 @@
         <v>1.5</v>
       </c>
       <c r="I115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="S115" t="b">
@@ -8548,7 +8548,7 @@
         <v>1.0000019967556</v>
       </c>
       <c r="I116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="S116" t="b">
@@ -8605,7 +8605,7 @@
         <v>4.0000019073486328</v>
       </c>
       <c r="I117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2.8000013351440427</v>
       </c>
       <c r="S117" t="b">
@@ -8662,7 +8662,7 @@
         <v>6</v>
       </c>
       <c r="I118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4.1999999999999993</v>
       </c>
       <c r="S118" t="b">
@@ -8719,7 +8719,7 @@
         <v>3</v>
       </c>
       <c r="I119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="S119" t="b">
@@ -8776,7 +8776,7 @@
         <v>1.5</v>
       </c>
       <c r="I120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="S120" t="b">
@@ -8833,7 +8833,7 @@
         <v>1.5</v>
       </c>
       <c r="I121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="S121" t="b">
@@ -8890,7 +8890,7 @@
         <v>1.9999979138374331</v>
       </c>
       <c r="I122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.3999985396862031</v>
       </c>
       <c r="S122" t="b">
@@ -8947,7 +8947,7 @@
         <v>3</v>
       </c>
       <c r="I123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="S123" t="b">
@@ -9004,7 +9004,7 @@
         <v>1.5</v>
       </c>
       <c r="I124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="S124" t="b">
@@ -9061,7 +9061,7 @@
         <v>1.0000019967556</v>
       </c>
       <c r="I125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="S125" t="b">
@@ -9118,7 +9118,7 @@
         <v>4.0000019073486328</v>
       </c>
       <c r="I126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2.8000013351440427</v>
       </c>
       <c r="S126" t="b">
@@ -9175,7 +9175,7 @@
         <v>6</v>
       </c>
       <c r="I127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4.1999999999999993</v>
       </c>
       <c r="S127" t="b">
@@ -9232,7 +9232,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J128" s="3"/>
@@ -9265,14 +9265,14 @@
         <v>151</v>
       </c>
       <c r="Z128">
-        <f t="shared" ref="Z128:Z131" si="8">COUNTIF(Y:Y,Y128)</f>
+        <f>COUNTIF(Y:Y,Y128)</f>
         <v>1</v>
       </c>
       <c r="AA128">
         <v>30</v>
       </c>
       <c r="AB128">
-        <f t="shared" ref="AB128:AB131" si="9">IF(R128="OK",AA128,AA128*2)</f>
+        <f t="shared" ref="AB128:AB131" si="4">IF(R128="OK",AA128,AA128*2)</f>
         <v>60</v>
       </c>
     </row>
@@ -9299,7 +9299,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J129" s="3"/>
@@ -9332,14 +9332,14 @@
         <v>152</v>
       </c>
       <c r="Z129">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(Y:Y,Y129)</f>
         <v>1</v>
       </c>
       <c r="AA129">
         <v>30</v>
       </c>
       <c r="AB129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
@@ -9366,7 +9366,7 @@
         <v>3</v>
       </c>
       <c r="I130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="J130" s="3"/>
@@ -9399,14 +9399,14 @@
         <v>153</v>
       </c>
       <c r="Z130">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(Y:Y,Y130)</f>
         <v>1</v>
       </c>
       <c r="AA130">
         <v>30</v>
       </c>
       <c r="AB130">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
@@ -9433,7 +9433,7 @@
         <v>1.0000019967556</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I135" si="10">H131*0.7</f>
+        <f t="shared" ref="I131:I135" si="5">H131*0.7</f>
         <v>0.70000139772891989</v>
       </c>
       <c r="J131" s="3"/>
@@ -9466,14 +9466,14 @@
         <v>154</v>
       </c>
       <c r="Z131">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(Y:Y,Y131)</f>
         <v>1</v>
       </c>
       <c r="AA131">
         <v>30</v>
       </c>
       <c r="AB131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
@@ -9500,7 +9500,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I132">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J132" s="3"/>
@@ -9533,14 +9533,14 @@
         <v>155</v>
       </c>
       <c r="Z132">
-        <f t="shared" ref="Z132:Z135" si="11">COUNTIF(Y:Y,Y132)</f>
+        <f>COUNTIF(Y:Y,Y132)</f>
         <v>1</v>
       </c>
       <c r="AA132">
         <v>30</v>
       </c>
       <c r="AB132">
-        <f t="shared" ref="AB132:AB135" si="12">IF(R132="OK",AA132,AA132*2)</f>
+        <f t="shared" ref="AB132:AB135" si="6">IF(R132="OK",AA132,AA132*2)</f>
         <v>60</v>
       </c>
     </row>
@@ -9567,7 +9567,7 @@
         <v>0.49999979138374329</v>
       </c>
       <c r="I133">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J133" s="3"/>
@@ -9600,14 +9600,14 @@
         <v>156</v>
       </c>
       <c r="Z133">
-        <f t="shared" si="11"/>
+        <f>COUNTIF(Y:Y,Y133)</f>
         <v>1</v>
       </c>
       <c r="AA133">
         <v>30</v>
       </c>
       <c r="AB133">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
     </row>
@@ -9634,7 +9634,7 @@
         <v>3</v>
       </c>
       <c r="I134">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="J134" s="3"/>
@@ -9667,14 +9667,14 @@
         <v>157</v>
       </c>
       <c r="Z134">
-        <f t="shared" si="11"/>
+        <f>COUNTIF(Y:Y,Y134)</f>
         <v>1</v>
       </c>
       <c r="AA134">
         <v>30</v>
       </c>
       <c r="AB134">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
         <v>1.0000019967556</v>
       </c>
       <c r="I135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J135" s="3"/>
@@ -9734,14 +9734,14 @@
         <v>158</v>
       </c>
       <c r="Z135">
-        <f t="shared" si="11"/>
+        <f>COUNTIF(Y:Y,Y135)</f>
         <v>1</v>
       </c>
       <c r="AA135">
         <v>30</v>
       </c>
       <c r="AB135">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
     </row>
@@ -9749,8 +9749,18 @@
   <autoFilter ref="A1:AA135" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Equipamento08"/>
-        <filter val="Equipamento8"/>
+        <filter val="Equipamento03"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="24">
+      <filters>
+        <filter val="Ativo3- REALIZAR LIMPEZA NOS BICOS INJETORES DE GÁS (2S)"/>
+        <filter val="Ativo3- VERIFICAR E LIMPAR CATALIZADOR, FLAMES E QUEIMADORES (SUPERIOR E INFERIOR), VERIFICAR RESISTÊNCIA (SUPERIOR E INFERIOR). (2S)"/>
+        <filter val="Ativo3- VERIFICAR E REALIZAR LIMPEZA NO SENSOR DE CHAMAS (2S)"/>
+        <filter val="Ativo3- VERIFICAR MOTOR DE ESTEIRA, VERIFICAR E REALIZAR APERTO ENGRENAGEM, CORRENTE E O MOTOR (COLOCAR CORRENTE MEDIDA (AMPERAGEM)) (12S)"/>
+        <filter val="Ativo3- VERIFICAR VAZAMENTO DE GÁS NA MANGUEIRA E NECESSÁRIO EFETUAR TROCA (2S)"/>
+        <filter val="Ativo3- VERIFICAR VAZAMENTO NA MANGUEIRA DE GÁS E, NECESSÁRIO, EFETUAR TROCA (2S)"/>
+        <filter val="Ativo3- VERIFICAR VELA DE INCANDESCÊNCIA (12S)"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/task_3_6.xlsx
+++ b/data/task_3_6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\OneDrive\Ambiente de Trabalho\Programção\SolverS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26FFB9E-770C-4E96-A38C-D68518525364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C9816E-6EB1-4809-807C-42F90FA9BE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2100" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -584,12 +584,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -613,16 +619,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,17 +952,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AB135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Y137" sqref="Y137"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="11"/>
+    <col min="6" max="6" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
@@ -959,12 +974,13 @@
     <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.85546875" customWidth="1"/>
     <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="149.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="67.85546875" customWidth="1"/>
-    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="149.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="67.85546875" style="7" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="7"/>
+    <col min="28" max="28" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -974,22 +990,22 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>173</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1022,10 +1038,10 @@
       <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="U1" s="1" t="s">
@@ -1040,36 +1056,36 @@
       <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:28" hidden="1">
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="11">
         <v>11</v>
       </c>
       <c r="E2" s="2">
         <v>431058</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H2">
@@ -1087,10 +1103,10 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="S2" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U2" s="2">
@@ -1105,45 +1121,45 @@
       <c r="X2" s="2">
         <v>672</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="Z2">
-        <f>COUNTIF(Y:Y,Y2)</f>
-        <v>1</v>
-      </c>
-      <c r="AA2">
+      <c r="Z2" s="7">
+        <f t="shared" ref="Z2:Z33" si="0">COUNTIF(Y:Y,Y2)</f>
+        <v>1</v>
+      </c>
+      <c r="AA2" s="7">
         <v>30</v>
       </c>
-      <c r="AB2">
-        <f t="shared" ref="AB2:AB51" si="0">IF(R2="OK",AA2,AA2*2)</f>
+      <c r="AB2" s="7">
+        <f t="shared" ref="AB2:AB51" si="1">IF(R2="OK",AA2,AA2*2)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:28" hidden="1">
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <v>11</v>
       </c>
       <c r="E3" s="2">
         <v>431058</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H3">
         <v>0.49999979138374329</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="1">H3*0.7</f>
+        <f t="shared" ref="I3:I66" si="2">H3*0.7</f>
         <v>0.34999985396862027</v>
       </c>
       <c r="J3" s="3"/>
@@ -1154,10 +1170,10 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="S3" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U3" s="2">
@@ -1172,45 +1188,45 @@
       <c r="X3" s="2">
         <v>672</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Z3">
-        <f>COUNTIF(Y:Y,Y3)</f>
-        <v>1</v>
-      </c>
-      <c r="AA3">
+      <c r="Z3" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA3" s="7">
         <v>30</v>
       </c>
-      <c r="AB3">
-        <f t="shared" si="0"/>
+      <c r="AB3" s="7">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:28" hidden="1">
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="11">
         <v>11</v>
       </c>
       <c r="E4" s="2">
         <v>431058</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="J4" s="3"/>
@@ -1221,10 +1237,10 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="S4" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U4" s="2">
@@ -1239,45 +1255,45 @@
       <c r="X4" s="2">
         <v>1344</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Z4">
-        <f>COUNTIF(Y:Y,Y4)</f>
-        <v>1</v>
-      </c>
-      <c r="AA4">
+      <c r="Z4" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA4" s="7">
         <v>30</v>
       </c>
-      <c r="AB4">
-        <f t="shared" si="0"/>
+      <c r="AB4" s="7">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:28" hidden="1">
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="11">
         <v>11</v>
       </c>
       <c r="E5" s="2">
         <v>431058</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H5">
         <v>1.0000019967556</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J5" s="3"/>
@@ -1288,10 +1304,10 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="S5" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U5" s="2">
@@ -1306,18 +1322,18 @@
       <c r="X5" s="2">
         <v>1344</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Z5">
-        <f>COUNTIF(Y:Y,Y5)</f>
-        <v>1</v>
-      </c>
-      <c r="AA5">
+      <c r="Z5" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA5" s="7">
         <v>30</v>
       </c>
-      <c r="AB5">
-        <f t="shared" si="0"/>
+      <c r="AB5" s="7">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1328,23 +1344,23 @@
       <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2">
         <v>419721</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="J6" s="3"/>
@@ -1355,10 +1371,10 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="S6" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U6" s="2">
@@ -1373,18 +1389,18 @@
       <c r="X6" s="2">
         <v>336</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Y6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Z6">
-        <f>COUNTIF(Y:Y,Y6)</f>
+      <c r="Z6" s="7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="7">
         <v>10</v>
       </c>
-      <c r="AB6">
-        <f t="shared" si="0"/>
+      <c r="AB6" s="7">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -1395,23 +1411,23 @@
       <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>419721</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H7">
         <v>1.9999979138374329</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3999985396862029</v>
       </c>
       <c r="J7" s="3"/>
@@ -1422,10 +1438,10 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="S7" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U7" s="2">
@@ -1440,18 +1456,18 @@
       <c r="X7" s="2">
         <v>336</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Z7">
-        <f>COUNTIF(Y:Y,Y7)</f>
+      <c r="Z7" s="7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="7">
         <v>30</v>
       </c>
-      <c r="AB7">
-        <f t="shared" si="0"/>
+      <c r="AB7" s="7">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1462,23 +1478,23 @@
       <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="2">
         <v>419721</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H8">
         <v>1.0000019967556</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J8" s="3"/>
@@ -1489,10 +1505,10 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="S8" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U8" s="2">
@@ -1507,18 +1523,18 @@
       <c r="X8" s="2">
         <v>336</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Y8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z8">
-        <f>COUNTIF(Y:Y,Y8)</f>
+      <c r="Z8" s="7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="7">
         <v>10</v>
       </c>
-      <c r="AB8">
-        <f t="shared" si="0"/>
+      <c r="AB8" s="7">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -1529,23 +1545,23 @@
       <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="2">
         <v>419721</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H9">
         <v>0.49999979138374329</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J9" s="3"/>
@@ -1556,10 +1572,10 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="S9" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U9" s="2">
@@ -1574,45 +1590,45 @@
       <c r="X9" s="2">
         <v>336</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Y9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Z9">
-        <f>COUNTIF(Y:Y,Y9)</f>
+      <c r="Z9" s="7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="7">
         <v>10</v>
       </c>
-      <c r="AB9">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" hidden="1">
+      <c r="AB9" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="2">
         <v>419721</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H10">
         <v>0.49999979138374329</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J10" s="3"/>
@@ -1623,10 +1639,10 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="S10" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U10" s="2">
@@ -1641,45 +1657,45 @@
       <c r="X10" s="2">
         <v>672</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Y10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="Z10">
-        <f>COUNTIF(Y:Y,Y10)</f>
+      <c r="Z10" s="7">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AA10">
-        <v>20</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="0"/>
+      <c r="AA10" s="7">
+        <v>20</v>
+      </c>
+      <c r="AB10" s="7">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:28" hidden="1">
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="2">
         <v>419721</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H11">
         <v>1.0000019967556</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J11" s="3"/>
@@ -1690,10 +1706,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="S11" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U11" s="2">
@@ -1708,45 +1724,45 @@
       <c r="X11" s="2">
         <v>672</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Y11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Z11">
-        <f>COUNTIF(Y:Y,Y11)</f>
+      <c r="Z11" s="7">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AA11">
-        <v>20</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="0"/>
+      <c r="AA11" s="7">
+        <v>20</v>
+      </c>
+      <c r="AB11" s="7">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:28" hidden="1">
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="2">
         <v>419721</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H12">
         <v>1.9999979138374329</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3999985396862029</v>
       </c>
       <c r="J12" s="3"/>
@@ -1757,10 +1773,10 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T12" t="s">
+      <c r="S12" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U12" s="2">
@@ -1775,45 +1791,45 @@
       <c r="X12" s="2">
         <v>1344</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Y12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="Z12">
-        <f>COUNTIF(Y:Y,Y12)</f>
-        <v>1</v>
-      </c>
-      <c r="AA12">
+      <c r="Z12" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA12" s="7">
         <v>10</v>
       </c>
-      <c r="AB12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" hidden="1">
+      <c r="AB12" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="2">
         <v>419721</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H13">
         <v>1.5</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="J13" s="3"/>
@@ -1824,10 +1840,10 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T13" t="s">
+      <c r="S13" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U13" s="2">
@@ -1842,45 +1858,45 @@
       <c r="X13" s="2">
         <v>1344</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Y13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="Z13">
-        <f>COUNTIF(Y:Y,Y13)</f>
-        <v>1</v>
-      </c>
-      <c r="AA13">
+      <c r="Z13" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="7">
         <v>10</v>
       </c>
-      <c r="AB13">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" hidden="1">
+      <c r="AB13" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="2">
         <v>419721</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H14">
         <v>1.9999979138374329</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3999985396862029</v>
       </c>
       <c r="J14" s="3"/>
@@ -1891,10 +1907,10 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T14" t="s">
+      <c r="S14" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U14" s="2">
@@ -1909,18 +1925,18 @@
       <c r="X14" s="2">
         <v>1344</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Y14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Z14">
-        <f>COUNTIF(Y:Y,Y14)</f>
-        <v>1</v>
-      </c>
-      <c r="AA14">
+      <c r="Z14" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA14" s="7">
         <v>10</v>
       </c>
-      <c r="AB14">
-        <f t="shared" si="0"/>
+      <c r="AB14" s="7">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -1931,23 +1947,23 @@
       <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="2">
         <v>430700</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="J15" s="3"/>
@@ -1958,10 +1974,10 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T15" t="s">
+      <c r="S15" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T15" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U15" s="2">
@@ -1976,18 +1992,18 @@
       <c r="X15" s="2">
         <v>336</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Y15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Z15">
-        <f>COUNTIF(Y:Y,Y15)</f>
+      <c r="Z15" s="7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="7">
         <v>10</v>
       </c>
-      <c r="AB15">
-        <f t="shared" si="0"/>
+      <c r="AB15" s="7">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -1998,23 +2014,23 @@
       <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="2">
         <v>430700</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H16">
         <v>1.9999979138374329</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3999985396862029</v>
       </c>
       <c r="J16" s="3"/>
@@ -2025,10 +2041,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T16" t="s">
+      <c r="S16" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T16" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U16" s="2">
@@ -2043,18 +2059,18 @@
       <c r="X16" s="2">
         <v>336</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Y16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Z16">
-        <f>COUNTIF(Y:Y,Y16)</f>
+      <c r="Z16" s="7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="7">
         <v>30</v>
       </c>
-      <c r="AB16">
-        <f t="shared" si="0"/>
+      <c r="AB16" s="7">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -2065,23 +2081,23 @@
       <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="2">
         <v>430700</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H17">
         <v>1.0000019967556</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J17" s="3"/>
@@ -2092,10 +2108,10 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T17" t="s">
+      <c r="S17" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T17" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U17" s="2">
@@ -2110,18 +2126,18 @@
       <c r="X17" s="2">
         <v>336</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Y17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z17">
-        <f>COUNTIF(Y:Y,Y17)</f>
+      <c r="Z17" s="7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="7">
         <v>10</v>
       </c>
-      <c r="AB17">
-        <f t="shared" si="0"/>
+      <c r="AB17" s="7">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -2132,23 +2148,23 @@
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="2">
         <v>430700</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H18">
         <v>0.49999979138374329</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J18" s="3"/>
@@ -2159,10 +2175,10 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T18" t="s">
+      <c r="S18" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U18" s="2">
@@ -2177,18 +2193,18 @@
       <c r="X18" s="2">
         <v>336</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Y18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Z18">
-        <f>COUNTIF(Y:Y,Y18)</f>
+      <c r="Z18" s="7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AA18">
-        <v>20</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="0"/>
+      <c r="AA18" s="7">
+        <v>20</v>
+      </c>
+      <c r="AB18" s="7">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -2199,23 +2215,23 @@
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="2">
         <v>441498</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H19">
         <v>3</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="J19" s="3"/>
@@ -2226,10 +2242,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T19" t="s">
+      <c r="S19" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T19" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U19" s="2">
@@ -2244,18 +2260,18 @@
       <c r="X19" s="2">
         <v>336</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Y19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Z19">
-        <f>COUNTIF(Y:Y,Y19)</f>
+      <c r="Z19" s="7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="7">
         <v>10</v>
       </c>
-      <c r="AB19">
-        <f t="shared" si="0"/>
+      <c r="AB19" s="7">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -2266,23 +2282,23 @@
       <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="2">
         <v>441498</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H20">
         <v>1.9999979138374329</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3999985396862029</v>
       </c>
       <c r="J20" s="3"/>
@@ -2293,10 +2309,10 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T20" t="s">
+      <c r="S20" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U20" s="2">
@@ -2311,18 +2327,18 @@
       <c r="X20" s="2">
         <v>336</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Y20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Z20">
-        <f>COUNTIF(Y:Y,Y20)</f>
+      <c r="Z20" s="7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="7">
         <v>10</v>
       </c>
-      <c r="AB20">
-        <f t="shared" si="0"/>
+      <c r="AB20" s="7">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -2333,23 +2349,23 @@
       <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="2">
         <v>441498</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H21">
         <v>1.0000019967556</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J21" s="3"/>
@@ -2360,10 +2376,10 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T21" t="s">
+      <c r="S21" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T21" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U21" s="2">
@@ -2378,18 +2394,18 @@
       <c r="X21" s="2">
         <v>336</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Y21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z21">
-        <f>COUNTIF(Y:Y,Y21)</f>
+      <c r="Z21" s="7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="7">
         <v>10</v>
       </c>
-      <c r="AB21">
-        <f t="shared" si="0"/>
+      <c r="AB21" s="7">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -2400,23 +2416,23 @@
       <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="2">
         <v>441498</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H22">
         <v>0.49999979138374329</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J22" s="3"/>
@@ -2427,10 +2443,10 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T22" t="s">
+      <c r="S22" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T22" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U22" s="2">
@@ -2445,45 +2461,45 @@
       <c r="X22" s="2">
         <v>336</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Y22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Z22">
-        <f>COUNTIF(Y:Y,Y22)</f>
+      <c r="Z22" s="7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AA22">
-        <v>20</v>
-      </c>
-      <c r="AB22">
-        <f t="shared" si="0"/>
+      <c r="AA22" s="7">
+        <v>20</v>
+      </c>
+      <c r="AB22" s="7">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:28" hidden="1">
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>82</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="2">
         <v>441498</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H23">
         <v>0.49999979138374329</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J23" s="3"/>
@@ -2494,10 +2510,10 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T23" t="s">
+      <c r="S23" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T23" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U23" s="2">
@@ -2512,45 +2528,45 @@
       <c r="X23" s="2">
         <v>672</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Y23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="Z23">
-        <f>COUNTIF(Y:Y,Y23)</f>
+      <c r="Z23" s="7">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="7">
         <v>30</v>
       </c>
-      <c r="AB23">
-        <f t="shared" si="0"/>
+      <c r="AB23" s="7">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:28" hidden="1">
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>83</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="2">
         <v>441498</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H24">
         <v>1.0000019967556</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J24" s="3"/>
@@ -2561,10 +2577,10 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T24" t="s">
+      <c r="S24" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T24" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U24" s="2">
@@ -2579,18 +2595,18 @@
       <c r="X24" s="2">
         <v>672</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Y24" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Z24">
-        <f>COUNTIF(Y:Y,Y24)</f>
+      <c r="Z24" s="7">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AA24">
-        <v>20</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" si="0"/>
+      <c r="AA24" s="7">
+        <v>20</v>
+      </c>
+      <c r="AB24" s="7">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -2601,23 +2617,23 @@
       <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="2">
         <v>441498</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H25">
         <v>1.5</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="J25" s="3"/>
@@ -2628,10 +2644,10 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T25" t="s">
+      <c r="S25" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T25" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U25" s="2">
@@ -2646,18 +2662,18 @@
       <c r="X25" s="2">
         <v>2016</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Y25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="Z25">
-        <f>COUNTIF(Y:Y,Y25)</f>
-        <v>1</v>
-      </c>
-      <c r="AA25">
-        <v>20</v>
-      </c>
-      <c r="AB25">
+      <c r="Z25" s="7">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA25" s="7">
+        <v>20</v>
+      </c>
+      <c r="AB25" s="7">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -2668,23 +2684,23 @@
       <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="2">
         <v>441498</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H26">
         <v>0.49999979138374329</v>
       </c>
       <c r="I26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J26" s="3"/>
@@ -2695,10 +2711,10 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T26" t="s">
+      <c r="S26" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U26" s="2">
@@ -2713,18 +2729,18 @@
       <c r="X26" s="2">
         <v>2016</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Y26" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="Z26">
-        <f>COUNTIF(Y:Y,Y26)</f>
-        <v>1</v>
-      </c>
-      <c r="AA26">
+      <c r="Z26" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA26" s="7">
         <v>30</v>
       </c>
-      <c r="AB26">
-        <f t="shared" si="0"/>
+      <c r="AB26" s="7">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -2735,23 +2751,23 @@
       <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="2">
         <v>425478</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H27">
         <v>1.0000019967556</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J27" s="3"/>
@@ -2762,10 +2778,10 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T27" t="s">
+      <c r="S27" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T27" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U27" s="2">
@@ -2780,18 +2796,18 @@
       <c r="X27" s="2">
         <v>336</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Y27" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Z27">
-        <f>COUNTIF(Y:Y,Y27)</f>
+      <c r="Z27" s="7">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="7">
         <v>10</v>
       </c>
-      <c r="AB27">
-        <f t="shared" si="0"/>
+      <c r="AB27" s="7">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -2802,23 +2818,23 @@
       <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="2">
         <v>435112</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H28">
         <v>1.0000019967556</v>
       </c>
       <c r="I28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J28" s="3"/>
@@ -2829,10 +2845,10 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T28" t="s">
+      <c r="S28" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T28" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U28" s="2">
@@ -2847,45 +2863,45 @@
       <c r="X28" s="2">
         <v>336</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Y28" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Z28">
-        <f>COUNTIF(Y:Y,Y28)</f>
+      <c r="Z28" s="7">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="7">
         <v>10</v>
       </c>
-      <c r="AB28">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" hidden="1">
+      <c r="AB28" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>57</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="2">
         <v>435112</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H29">
         <v>4.5</v>
       </c>
       <c r="I29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.15</v>
       </c>
       <c r="J29" s="3"/>
@@ -2896,10 +2912,10 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T29" t="s">
+      <c r="S29" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T29" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U29" s="2">
@@ -2914,45 +2930,45 @@
       <c r="X29" s="2">
         <v>672</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Y29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="Z29">
-        <f>COUNTIF(Y:Y,Y29)</f>
-        <v>1</v>
-      </c>
-      <c r="AA29">
+      <c r="Z29" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA29" s="7">
         <v>10</v>
       </c>
-      <c r="AB29">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" hidden="1">
+      <c r="AB29" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>58</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="2">
         <v>435112</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H30">
         <v>0.49999979138374329</v>
       </c>
       <c r="I30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J30" s="3"/>
@@ -2963,10 +2979,10 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T30" t="s">
+      <c r="S30" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T30" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U30" s="2">
@@ -2981,45 +2997,45 @@
       <c r="X30" s="2">
         <v>672</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Y30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Z30">
-        <f>COUNTIF(Y:Y,Y30)</f>
-        <v>1</v>
-      </c>
-      <c r="AA30">
+      <c r="Z30" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA30" s="7">
         <v>30</v>
       </c>
-      <c r="AB30">
-        <f t="shared" si="0"/>
+      <c r="AB30" s="7">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:28" hidden="1">
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>59</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="2">
         <v>435112</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H31">
         <v>1.0000019967556</v>
       </c>
       <c r="I31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J31" s="3"/>
@@ -3030,10 +3046,10 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T31" t="s">
+      <c r="S31" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T31" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U31" s="2">
@@ -3048,45 +3064,45 @@
       <c r="X31" s="2">
         <v>672</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Y31" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Z31">
-        <f>COUNTIF(Y:Y,Y31)</f>
-        <v>1</v>
-      </c>
-      <c r="AA31">
+      <c r="Z31" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA31" s="7">
         <v>10</v>
       </c>
-      <c r="AB31">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" hidden="1">
+      <c r="AB31" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="2">
         <v>435112</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H32">
         <v>1.5</v>
       </c>
       <c r="I32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="J32" s="3"/>
@@ -3097,10 +3113,10 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T32" t="s">
+      <c r="S32" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T32" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U32" s="2">
@@ -3115,45 +3131,45 @@
       <c r="X32" s="2">
         <v>672</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Y32" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="Z32">
-        <f>COUNTIF(Y:Y,Y32)</f>
-        <v>1</v>
-      </c>
-      <c r="AA32">
+      <c r="Z32" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA32" s="7">
         <v>10</v>
       </c>
-      <c r="AB32">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" hidden="1">
+      <c r="AB32" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>47</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="2">
         <v>430889</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H33">
         <v>1.9999979138374329</v>
       </c>
       <c r="I33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3999985396862029</v>
       </c>
       <c r="J33" s="3"/>
@@ -3164,10 +3180,10 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T33" t="s">
+      <c r="S33" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T33" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U33" s="2">
@@ -3182,45 +3198,45 @@
       <c r="X33" s="2">
         <v>1344</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Y33" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Z33">
-        <f>COUNTIF(Y:Y,Y33)</f>
-        <v>1</v>
-      </c>
-      <c r="AA33">
-        <v>20</v>
-      </c>
-      <c r="AB33">
+      <c r="Z33" s="7">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA33" s="7">
+        <v>20</v>
+      </c>
+      <c r="AB33" s="7">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:28" hidden="1">
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>48</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="2">
         <v>430889</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H34">
         <v>3</v>
       </c>
       <c r="I34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="J34" s="3"/>
@@ -3231,10 +3247,10 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T34" t="s">
+      <c r="S34" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T34" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U34" s="2">
@@ -3249,45 +3265,45 @@
       <c r="X34" s="2">
         <v>1344</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Y34" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Z34">
-        <f>COUNTIF(Y:Y,Y34)</f>
-        <v>1</v>
-      </c>
-      <c r="AA34">
-        <v>20</v>
-      </c>
-      <c r="AB34">
-        <f t="shared" si="0"/>
+      <c r="Z34" s="7">
+        <f t="shared" ref="Z34:Z65" si="3">COUNTIF(Y:Y,Y34)</f>
+        <v>1</v>
+      </c>
+      <c r="AA34" s="7">
+        <v>20</v>
+      </c>
+      <c r="AB34" s="7">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:28" hidden="1">
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>49</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="2">
         <v>430889</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H35">
         <v>0.19999980926513672</v>
       </c>
       <c r="I35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1399998664855957</v>
       </c>
       <c r="J35" s="3"/>
@@ -3298,10 +3314,10 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="R35" s="4"/>
-      <c r="S35" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T35" t="s">
+      <c r="S35" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T35" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U35" s="2">
@@ -3316,45 +3332,45 @@
       <c r="X35" s="2">
         <v>1344</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Y35" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Z35">
-        <f>COUNTIF(Y:Y,Y35)</f>
-        <v>1</v>
-      </c>
-      <c r="AA35">
-        <v>20</v>
-      </c>
-      <c r="AB35">
-        <f t="shared" si="0"/>
+      <c r="Z35" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA35" s="7">
+        <v>20</v>
+      </c>
+      <c r="AB35" s="7">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:28" hidden="1">
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>61</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E36" s="2">
         <v>435112</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H36">
         <v>1.9999979138374329</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3999985396862029</v>
       </c>
       <c r="J36" s="3"/>
@@ -3365,10 +3381,10 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="R36" s="4"/>
-      <c r="S36" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T36" t="s">
+      <c r="S36" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T36" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U36" s="2">
@@ -3383,45 +3399,45 @@
       <c r="X36" s="2">
         <v>1344</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Y36" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="Z36">
-        <f>COUNTIF(Y:Y,Y36)</f>
-        <v>1</v>
-      </c>
-      <c r="AA36">
+      <c r="Z36" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA36" s="7">
         <v>10</v>
       </c>
-      <c r="AB36">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" hidden="1">
+      <c r="AB36" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>88</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E37" s="2">
         <v>441653</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H37">
         <v>0.19999980926513672</v>
       </c>
       <c r="I37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1399998664855957</v>
       </c>
       <c r="J37" s="3"/>
@@ -3432,10 +3448,10 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T37" t="s">
+      <c r="S37" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T37" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U37" s="2">
@@ -3450,45 +3466,45 @@
       <c r="X37" s="2">
         <v>2016</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Y37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Z37">
-        <f>COUNTIF(Y:Y,Y37)</f>
-        <v>1</v>
-      </c>
-      <c r="AA37">
-        <v>20</v>
-      </c>
-      <c r="AB37">
-        <f t="shared" si="0"/>
+      <c r="Z37" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA37" s="7">
+        <v>20</v>
+      </c>
+      <c r="AB37" s="7">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:28" hidden="1">
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>12</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="2">
         <v>419878</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H38">
         <v>1.0000019967556</v>
       </c>
       <c r="I38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J38" s="3"/>
@@ -3499,10 +3515,10 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="R38" s="4"/>
-      <c r="S38" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T38" t="s">
+      <c r="S38" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T38" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U38" s="2">
@@ -3517,45 +3533,45 @@
       <c r="X38" s="2">
         <v>1344</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Y38" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Z38">
-        <f>COUNTIF(Y:Y,Y38)</f>
-        <v>1</v>
-      </c>
-      <c r="AA38">
+      <c r="Z38" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA38" s="7">
         <v>10</v>
       </c>
-      <c r="AB38">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" hidden="1">
+      <c r="AB38" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>13</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="2">
         <v>419878</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H39">
         <v>0.49999979138374329</v>
       </c>
       <c r="I39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J39" s="3"/>
@@ -3566,10 +3582,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="R39" s="4"/>
-      <c r="S39" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T39" t="s">
+      <c r="S39" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T39" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U39" s="2">
@@ -3584,45 +3600,45 @@
       <c r="X39" s="2">
         <v>1344</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Y39" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Z39">
-        <f>COUNTIF(Y:Y,Y39)</f>
-        <v>1</v>
-      </c>
-      <c r="AA39">
+      <c r="Z39" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA39" s="7">
         <v>10</v>
       </c>
-      <c r="AB39">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" hidden="1">
+      <c r="AB39" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>14</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E40" s="2">
         <v>419878</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H40">
         <v>0.49999979138374329</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J40" s="3"/>
@@ -3633,10 +3649,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="R40" s="4"/>
-      <c r="S40" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T40" t="s">
+      <c r="S40" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T40" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U40" s="2">
@@ -3651,45 +3667,45 @@
       <c r="X40" s="2">
         <v>1344</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Y40" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="Z40">
-        <f>COUNTIF(Y:Y,Y40)</f>
-        <v>1</v>
-      </c>
-      <c r="AA40">
-        <v>20</v>
-      </c>
-      <c r="AB40">
-        <f t="shared" si="0"/>
+      <c r="Z40" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA40" s="7">
+        <v>20</v>
+      </c>
+      <c r="AB40" s="7">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:28" hidden="1">
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>11</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E41" s="2">
         <v>419878</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H41">
         <v>0.49999979138374329</v>
       </c>
       <c r="I41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J41" s="3"/>
@@ -3700,10 +3716,10 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="R41" s="4"/>
-      <c r="S41" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T41" t="s">
+      <c r="S41" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T41" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U41" s="2">
@@ -3718,45 +3734,45 @@
       <c r="X41" s="2">
         <v>672</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Y41" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Z41">
-        <f>COUNTIF(Y:Y,Y41)</f>
+      <c r="Z41" s="7">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AA41">
+      <c r="AA41" s="7">
         <v>10</v>
       </c>
-      <c r="AB41">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" hidden="1">
+      <c r="AB41" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>87</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E42" s="2">
         <v>441653</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H42">
         <v>0.49999979138374329</v>
       </c>
       <c r="I42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J42" s="3"/>
@@ -3767,10 +3783,10 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="R42" s="4"/>
-      <c r="S42" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T42" t="s">
+      <c r="S42" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T42" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U42" s="2">
@@ -3785,45 +3801,45 @@
       <c r="X42" s="2">
         <v>672</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Y42" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Z42">
-        <f>COUNTIF(Y:Y,Y42)</f>
+      <c r="Z42" s="7">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AA42">
-        <v>20</v>
-      </c>
-      <c r="AB42">
-        <f t="shared" si="0"/>
+      <c r="AA42" s="7">
+        <v>20</v>
+      </c>
+      <c r="AB42" s="7">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:28" hidden="1">
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>23</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E43" s="2">
         <v>420639</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H43">
         <v>0.30000000447034836</v>
       </c>
       <c r="I43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21000000312924383</v>
       </c>
       <c r="J43" s="3"/>
@@ -3834,10 +3850,10 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="R43" s="4"/>
-      <c r="S43" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T43" t="s">
+      <c r="S43" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T43" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U43" s="2">
@@ -3852,45 +3868,45 @@
       <c r="X43" s="2">
         <v>672</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Y43" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="Z43">
-        <f>COUNTIF(Y:Y,Y43)</f>
+      <c r="Z43" s="7">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AA43">
+      <c r="AA43" s="7">
         <v>10</v>
       </c>
-      <c r="AB43">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" hidden="1">
+      <c r="AB43" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>24</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E44" s="2">
         <v>420639</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H44">
         <v>0.30000000447034836</v>
       </c>
       <c r="I44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21000000312924383</v>
       </c>
       <c r="J44" s="3"/>
@@ -3901,10 +3917,10 @@
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="R44" s="4"/>
-      <c r="S44" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T44" t="s">
+      <c r="S44" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T44" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U44" s="2">
@@ -3919,45 +3935,45 @@
       <c r="X44" s="2">
         <v>672</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Y44" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Z44">
-        <f>COUNTIF(Y:Y,Y44)</f>
+      <c r="Z44" s="7">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AA44">
+      <c r="AA44" s="7">
         <v>30</v>
       </c>
-      <c r="AB44">
-        <f t="shared" si="0"/>
+      <c r="AB44" s="7">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:28" hidden="1">
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>25</v>
       </c>
       <c r="B45" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="2">
         <v>420639</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H45">
         <v>0.30000000447034836</v>
       </c>
       <c r="I45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21000000312924383</v>
       </c>
       <c r="J45" s="3"/>
@@ -3968,10 +3984,10 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="R45" s="4"/>
-      <c r="S45" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T45" t="s">
+      <c r="S45" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T45" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U45" s="2">
@@ -3986,45 +4002,45 @@
       <c r="X45" s="2">
         <v>672</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Y45" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="Z45">
-        <f>COUNTIF(Y:Y,Y45)</f>
+      <c r="Z45" s="7">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AA45">
+      <c r="AA45" s="7">
         <v>10</v>
       </c>
-      <c r="AB45">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" hidden="1">
+      <c r="AB45" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>26</v>
       </c>
       <c r="B46" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="2">
         <v>420639</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H46">
         <v>0.30000000447034836</v>
       </c>
       <c r="I46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21000000312924383</v>
       </c>
       <c r="J46" s="3"/>
@@ -4035,10 +4051,10 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="R46" s="4"/>
-      <c r="S46" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T46" t="s">
+      <c r="S46" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T46" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U46" s="2">
@@ -4053,45 +4069,45 @@
       <c r="X46" s="2">
         <v>672</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Y46" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="Z46">
-        <f>COUNTIF(Y:Y,Y46)</f>
+      <c r="Z46" s="7">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AA46">
+      <c r="AA46" s="7">
         <v>10</v>
       </c>
-      <c r="AB46">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" hidden="1">
+      <c r="AB46" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>95</v>
       </c>
       <c r="B47" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E47" s="2">
         <v>442389</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H47">
         <v>0.30000000447034836</v>
       </c>
       <c r="I47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21000000312924383</v>
       </c>
       <c r="J47" s="3"/>
@@ -4102,10 +4118,10 @@
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="R47" s="4"/>
-      <c r="S47" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T47" t="s">
+      <c r="S47" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T47" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U47" s="2">
@@ -4120,45 +4136,45 @@
       <c r="X47" s="2">
         <v>672</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Y47" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="Z47">
-        <f>COUNTIF(Y:Y,Y47)</f>
+      <c r="Z47" s="7">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AA47">
+      <c r="AA47" s="7">
         <v>30</v>
       </c>
-      <c r="AB47">
-        <f t="shared" si="0"/>
+      <c r="AB47" s="7">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:28" hidden="1">
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>96</v>
       </c>
       <c r="B48" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E48" s="2">
         <v>442389</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H48">
         <v>0.30000000447034836</v>
       </c>
       <c r="I48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21000000312924383</v>
       </c>
       <c r="J48" s="3"/>
@@ -4169,10 +4185,10 @@
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="R48" s="4"/>
-      <c r="S48" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T48" t="s">
+      <c r="S48" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T48" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U48" s="2">
@@ -4187,45 +4203,45 @@
       <c r="X48" s="2">
         <v>672</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Y48" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Z48">
-        <f>COUNTIF(Y:Y,Y48)</f>
+      <c r="Z48" s="7">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AA48">
+      <c r="AA48" s="7">
         <v>10</v>
       </c>
-      <c r="AB48">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" hidden="1">
+      <c r="AB48" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>97</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E49" s="2">
         <v>442389</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H49">
         <v>0.30000000447034836</v>
       </c>
       <c r="I49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21000000312924383</v>
       </c>
       <c r="J49" s="3"/>
@@ -4236,10 +4252,10 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="R49" s="4"/>
-      <c r="S49" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T49" t="s">
+      <c r="S49" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T49" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U49" s="2">
@@ -4254,45 +4270,45 @@
       <c r="X49" s="2">
         <v>672</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Y49" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="Z49">
-        <f>COUNTIF(Y:Y,Y49)</f>
+      <c r="Z49" s="7">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AA49">
+      <c r="AA49" s="7">
         <v>10</v>
       </c>
-      <c r="AB49">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" hidden="1">
+      <c r="AB49" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>98</v>
       </c>
       <c r="B50" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E50" s="2">
         <v>442389</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H50">
         <v>0.30000000447034836</v>
       </c>
       <c r="I50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21000000312924383</v>
       </c>
       <c r="J50" s="3"/>
@@ -4303,10 +4319,10 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="R50" s="4"/>
-      <c r="S50" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T50" t="s">
+      <c r="S50" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T50" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U50" s="2">
@@ -4321,45 +4337,45 @@
       <c r="X50" s="2">
         <v>672</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Y50" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="Z50">
-        <f>COUNTIF(Y:Y,Y50)</f>
+      <c r="Z50" s="7">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AA50">
+      <c r="AA50" s="7">
         <v>10</v>
       </c>
-      <c r="AB50">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" hidden="1">
+      <c r="AB50" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>99</v>
       </c>
       <c r="B51" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E51" s="2">
         <v>442389</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H51">
         <v>0.10000019520521164</v>
       </c>
       <c r="I51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J51" s="3"/>
@@ -4370,10 +4386,10 @@
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="R51" s="4"/>
-      <c r="S51" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T51" t="s">
+      <c r="S51" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T51" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U51" s="2">
@@ -4388,45 +4404,45 @@
       <c r="X51" s="2">
         <v>2016</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Y51" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="Z51">
-        <f>COUNTIF(Y:Y,Y51)</f>
-        <v>1</v>
-      </c>
-      <c r="AA51">
+      <c r="Z51" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA51" s="7">
         <v>10</v>
       </c>
-      <c r="AB51">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" hidden="1">
+      <c r="AB51" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>100</v>
       </c>
       <c r="B52" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E52" s="2">
         <v>442389</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H52">
         <v>0.10000019520521164</v>
       </c>
       <c r="I52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J52" s="3"/>
@@ -4437,10 +4453,10 @@
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="R52" s="4"/>
-      <c r="S52" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T52" t="s">
+      <c r="S52" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T52" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U52" s="2">
@@ -4455,45 +4471,45 @@
       <c r="X52" s="2">
         <v>2016</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Y52" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="Z52">
-        <f>COUNTIF(Y:Y,Y52)</f>
-        <v>1</v>
-      </c>
-      <c r="AA52">
+      <c r="Z52" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA52" s="7">
         <v>10</v>
       </c>
-      <c r="AB52">
-        <f t="shared" ref="AB52:AB100" si="2">IF(R52="OK",AA52,AA52*2)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" hidden="1">
+      <c r="AB52" s="7">
+        <f t="shared" ref="AB52:AB100" si="4">IF(R52="OK",AA52,AA52*2)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>101</v>
       </c>
       <c r="B53" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E53" s="2">
         <v>442389</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H53">
         <v>0.10000019520521164</v>
       </c>
       <c r="I53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J53" s="3"/>
@@ -4504,10 +4520,10 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="R53" s="4"/>
-      <c r="S53" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T53" t="s">
+      <c r="S53" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T53" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U53" s="2">
@@ -4522,45 +4538,45 @@
       <c r="X53" s="2">
         <v>2016</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Y53" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="Z53">
-        <f>COUNTIF(Y:Y,Y53)</f>
-        <v>1</v>
-      </c>
-      <c r="AA53">
+      <c r="Z53" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA53" s="7">
         <v>10</v>
       </c>
-      <c r="AB53">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" hidden="1">
+      <c r="AB53" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>102</v>
       </c>
       <c r="B54" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E54" s="2">
         <v>442389</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H54">
         <v>0.10000019520521164</v>
       </c>
       <c r="I54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J54" s="3"/>
@@ -4571,10 +4587,10 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="R54" s="4"/>
-      <c r="S54" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T54" t="s">
+      <c r="S54" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T54" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U54" s="2">
@@ -4589,45 +4605,45 @@
       <c r="X54" s="2">
         <v>2016</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Y54" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="Z54">
-        <f>COUNTIF(Y:Y,Y54)</f>
-        <v>1</v>
-      </c>
-      <c r="AA54">
+      <c r="Z54" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA54" s="7">
         <v>30</v>
       </c>
-      <c r="AB54">
-        <f t="shared" si="2"/>
+      <c r="AB54" s="7">
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:28" hidden="1">
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>103</v>
       </c>
       <c r="B55" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E55" s="2">
         <v>442389</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H55">
         <v>0.49999979138374329</v>
       </c>
       <c r="I55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J55" s="3"/>
@@ -4638,10 +4654,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="R55" s="4"/>
-      <c r="S55" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T55" t="s">
+      <c r="S55" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T55" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U55" s="2">
@@ -4656,45 +4672,45 @@
       <c r="X55" s="2">
         <v>2016</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Y55" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="Z55">
-        <f>COUNTIF(Y:Y,Y55)</f>
-        <v>1</v>
-      </c>
-      <c r="AA55">
+      <c r="Z55" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA55" s="7">
         <v>10</v>
       </c>
-      <c r="AB55">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" hidden="1">
+      <c r="AB55" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>20</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="2">
         <v>419961</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H56">
         <v>1.0000019967556</v>
       </c>
       <c r="I56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J56" s="3"/>
@@ -4705,10 +4721,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="R56" s="4"/>
-      <c r="S56" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T56" t="s">
+      <c r="S56" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T56" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U56" s="2">
@@ -4723,45 +4739,45 @@
       <c r="X56" s="2">
         <v>672</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Y56" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="Z56">
-        <f>COUNTIF(Y:Y,Y56)</f>
+      <c r="Z56" s="7">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AA56">
+      <c r="AA56" s="7">
         <v>10</v>
       </c>
-      <c r="AB56">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" hidden="1">
+      <c r="AB56" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>21</v>
       </c>
       <c r="B57" t="s">
         <v>35</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="2">
         <v>419961</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H57">
         <v>1.0000019967556</v>
       </c>
       <c r="I57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J57" s="3"/>
@@ -4772,10 +4788,10 @@
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="R57" s="4"/>
-      <c r="S57" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T57" t="s">
+      <c r="S57" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T57" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U57" s="2">
@@ -4790,45 +4806,45 @@
       <c r="X57" s="2">
         <v>672</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Y57" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Z57">
-        <f>COUNTIF(Y:Y,Y57)</f>
+      <c r="Z57" s="7">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AA57">
+      <c r="AA57" s="7">
         <v>10</v>
       </c>
-      <c r="AB57">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" hidden="1">
+      <c r="AB57" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>22</v>
       </c>
       <c r="B58" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E58" s="2">
         <v>419961</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H58">
         <v>0.49999979138374329</v>
       </c>
       <c r="I58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J58" s="3"/>
@@ -4839,10 +4855,10 @@
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="R58" s="4"/>
-      <c r="S58" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T58" t="s">
+      <c r="S58" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T58" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U58" s="2">
@@ -4857,45 +4873,45 @@
       <c r="X58" s="2">
         <v>672</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Y58" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="Z58">
-        <f>COUNTIF(Y:Y,Y58)</f>
+      <c r="Z58" s="7">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AA58">
+      <c r="AA58" s="7">
         <v>10</v>
       </c>
-      <c r="AB58">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" hidden="1">
+      <c r="AB58" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>92</v>
       </c>
       <c r="B59" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E59" s="2">
         <v>441735</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H59">
         <v>1.0000019967556</v>
       </c>
       <c r="I59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J59" s="3"/>
@@ -4906,10 +4922,10 @@
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="R59" s="4"/>
-      <c r="S59" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T59" t="s">
+      <c r="S59" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T59" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U59" s="2">
@@ -4924,45 +4940,45 @@
       <c r="X59" s="2">
         <v>672</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Y59" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="Z59">
-        <f>COUNTIF(Y:Y,Y59)</f>
+      <c r="Z59" s="7">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AA59">
+      <c r="AA59" s="7">
         <v>10</v>
       </c>
-      <c r="AB59">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" hidden="1">
+      <c r="AB59" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>93</v>
       </c>
       <c r="B60" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E60" s="2">
         <v>441735</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H60">
         <v>1.0000019967556</v>
       </c>
       <c r="I60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J60" s="3"/>
@@ -4973,10 +4989,10 @@
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
       <c r="R60" s="4"/>
-      <c r="S60" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T60" t="s">
+      <c r="S60" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T60" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U60" s="2">
@@ -4991,45 +5007,45 @@
       <c r="X60" s="2">
         <v>672</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Y60" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Z60">
-        <f>COUNTIF(Y:Y,Y60)</f>
+      <c r="Z60" s="7">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AA60">
+      <c r="AA60" s="7">
         <v>10</v>
       </c>
-      <c r="AB60">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" hidden="1">
+      <c r="AB60" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61">
         <v>94</v>
       </c>
       <c r="B61" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E61" s="2">
         <v>441735</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H61">
         <v>0.49999979138374329</v>
       </c>
       <c r="I61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J61" s="3"/>
@@ -5040,10 +5056,10 @@
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
       <c r="R61" s="4"/>
-      <c r="S61" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T61" t="s">
+      <c r="S61" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T61" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U61" s="2">
@@ -5058,45 +5074,45 @@
       <c r="X61" s="2">
         <v>672</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Y61" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="Z61">
-        <f>COUNTIF(Y:Y,Y61)</f>
+      <c r="Z61" s="7">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AA61">
+      <c r="AA61" s="7">
         <v>10</v>
       </c>
-      <c r="AB61">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" hidden="1">
+      <c r="AB61" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62">
         <v>15</v>
       </c>
       <c r="B62" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E62" s="2">
         <v>419883</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H62">
         <v>0.49999979138374329</v>
       </c>
       <c r="I62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J62" s="3"/>
@@ -5107,10 +5123,10 @@
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
       <c r="R62" s="4"/>
-      <c r="S62" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T62" t="s">
+      <c r="S62" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T62" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U62" s="2">
@@ -5125,45 +5141,45 @@
       <c r="X62" s="2">
         <v>336</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Y62" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Z62">
-        <f>COUNTIF(Y:Y,Y62)</f>
+      <c r="Z62" s="7">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AA62">
-        <v>20</v>
-      </c>
-      <c r="AB62">
-        <f t="shared" si="2"/>
+      <c r="AA62" s="7">
+        <v>20</v>
+      </c>
+      <c r="AB62" s="7">
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:28" hidden="1">
+    <row r="63" spans="1:28">
       <c r="A63">
         <v>16</v>
       </c>
       <c r="B63" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E63" s="2">
         <v>419883</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H63">
         <v>0.49999979138374329</v>
       </c>
       <c r="I63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J63" s="3"/>
@@ -5174,10 +5190,10 @@
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
       <c r="R63" s="4"/>
-      <c r="S63" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T63" t="s">
+      <c r="S63" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T63" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U63" s="2">
@@ -5192,45 +5208,45 @@
       <c r="X63" s="2">
         <v>672</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Y63" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="Z63">
-        <f>COUNTIF(Y:Y,Y63)</f>
+      <c r="Z63" s="7">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AA63">
-        <v>20</v>
-      </c>
-      <c r="AB63">
-        <f t="shared" si="2"/>
+      <c r="AA63" s="7">
+        <v>20</v>
+      </c>
+      <c r="AB63" s="7">
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:28" hidden="1">
+    <row r="64" spans="1:28">
       <c r="A64">
         <v>17</v>
       </c>
       <c r="B64" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E64" s="2">
         <v>419883</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H64">
         <v>1.0000019967556</v>
       </c>
       <c r="I64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J64" s="3"/>
@@ -5241,10 +5257,10 @@
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
       <c r="R64" s="4"/>
-      <c r="S64" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T64" t="s">
+      <c r="S64" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T64" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U64" s="2">
@@ -5259,45 +5275,45 @@
       <c r="X64" s="2">
         <v>1344</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Y64" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="Z64">
-        <f>COUNTIF(Y:Y,Y64)</f>
-        <v>1</v>
-      </c>
-      <c r="AA64">
-        <v>20</v>
-      </c>
-      <c r="AB64">
-        <f t="shared" si="2"/>
+      <c r="Z64" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA64" s="7">
+        <v>20</v>
+      </c>
+      <c r="AB64" s="7">
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:28" hidden="1">
+    <row r="65" spans="1:28">
       <c r="A65">
         <v>18</v>
       </c>
       <c r="B65" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E65" s="2">
         <v>419883</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H65">
         <v>0.49999979138374329</v>
       </c>
       <c r="I65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J65" s="3"/>
@@ -5308,10 +5324,10 @@
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
       <c r="R65" s="4"/>
-      <c r="S65" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T65" t="s">
+      <c r="S65" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T65" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U65" s="2">
@@ -5326,45 +5342,45 @@
       <c r="X65" s="2">
         <v>1344</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Y65" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="Z65">
-        <f>COUNTIF(Y:Y,Y65)</f>
-        <v>1</v>
-      </c>
-      <c r="AA65">
-        <v>20</v>
-      </c>
-      <c r="AB65">
-        <f t="shared" si="2"/>
+      <c r="Z65" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA65" s="7">
+        <v>20</v>
+      </c>
+      <c r="AB65" s="7">
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:28" hidden="1">
+    <row r="66" spans="1:28">
       <c r="A66">
         <v>19</v>
       </c>
       <c r="B66" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E66" s="2">
         <v>419883</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H66">
         <v>0.49999979138374329</v>
       </c>
       <c r="I66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J66" s="3"/>
@@ -5375,10 +5391,10 @@
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="R66" s="4"/>
-      <c r="S66" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T66" t="s">
+      <c r="S66" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T66" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U66" s="2">
@@ -5393,45 +5409,45 @@
       <c r="X66" s="2">
         <v>1344</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Y66" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="Z66">
-        <f>COUNTIF(Y:Y,Y66)</f>
-        <v>1</v>
-      </c>
-      <c r="AA66">
+      <c r="Z66" s="7">
+        <f t="shared" ref="Z66:Z97" si="5">COUNTIF(Y:Y,Y66)</f>
+        <v>1</v>
+      </c>
+      <c r="AA66" s="7">
         <v>10</v>
       </c>
-      <c r="AB66">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28" hidden="1">
+      <c r="AB66" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67">
         <v>51</v>
       </c>
       <c r="B67" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E67" s="2">
         <v>431034</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H67">
         <v>0.49999979138374329</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" si="3">H67*0.7</f>
+        <f t="shared" ref="I67:I130" si="6">H67*0.7</f>
         <v>0.34999985396862027</v>
       </c>
       <c r="J67" s="3"/>
@@ -5442,10 +5458,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="R67" s="4"/>
-      <c r="S67" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T67" t="s">
+      <c r="S67" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T67" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U67" s="2">
@@ -5460,45 +5476,45 @@
       <c r="X67" s="2">
         <v>336</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Y67" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Z67">
-        <f>COUNTIF(Y:Y,Y67)</f>
+      <c r="Z67" s="7">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AA67">
+      <c r="AA67" s="7">
         <v>10</v>
       </c>
-      <c r="AB67">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28" hidden="1">
+      <c r="AB67" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68">
         <v>89</v>
       </c>
       <c r="B68" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E68" s="2">
         <v>441658</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H68">
         <v>0.49999979138374329</v>
       </c>
       <c r="I68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J68" s="3"/>
@@ -5509,10 +5525,10 @@
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
       <c r="R68" s="4"/>
-      <c r="S68" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T68" t="s">
+      <c r="S68" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T68" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U68" s="2">
@@ -5527,45 +5543,45 @@
       <c r="X68" s="2">
         <v>336</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Y68" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Z68">
-        <f>COUNTIF(Y:Y,Y68)</f>
+      <c r="Z68" s="7">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AA68">
-        <v>20</v>
-      </c>
-      <c r="AB68">
-        <f t="shared" si="2"/>
+      <c r="AA68" s="7">
+        <v>20</v>
+      </c>
+      <c r="AB68" s="7">
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:28" hidden="1">
+    <row r="69" spans="1:28">
       <c r="A69">
         <v>90</v>
       </c>
       <c r="B69" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E69" s="2">
         <v>441658</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H69">
         <v>0.49999979138374329</v>
       </c>
       <c r="I69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J69" s="3"/>
@@ -5576,10 +5592,10 @@
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
       <c r="R69" s="4"/>
-      <c r="S69" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T69" t="s">
+      <c r="S69" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T69" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U69" s="2">
@@ -5594,45 +5610,45 @@
       <c r="X69" s="2">
         <v>672</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Y69" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="Z69">
-        <f>COUNTIF(Y:Y,Y69)</f>
+      <c r="Z69" s="7">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AA69">
-        <v>20</v>
-      </c>
-      <c r="AB69">
-        <f t="shared" si="2"/>
+      <c r="AA69" s="7">
+        <v>20</v>
+      </c>
+      <c r="AB69" s="7">
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:28" hidden="1">
+    <row r="70" spans="1:28">
       <c r="A70">
         <v>91</v>
       </c>
       <c r="B70" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E70" s="2">
         <v>441658</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H70">
         <v>0.19999980926513672</v>
       </c>
       <c r="I70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.1399998664855957</v>
       </c>
       <c r="J70" s="3"/>
@@ -5643,10 +5659,10 @@
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="R70" s="4"/>
-      <c r="S70" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T70" t="s">
+      <c r="S70" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T70" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U70" s="2">
@@ -5661,45 +5677,45 @@
       <c r="X70" s="2">
         <v>2016</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Y70" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="Z70">
-        <f>COUNTIF(Y:Y,Y70)</f>
-        <v>1</v>
-      </c>
-      <c r="AA70">
-        <v>20</v>
-      </c>
-      <c r="AB70">
-        <f t="shared" si="2"/>
+      <c r="Z70" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA70" s="7">
+        <v>20</v>
+      </c>
+      <c r="AB70" s="7">
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:28" hidden="1">
+    <row r="71" spans="1:28">
       <c r="A71">
         <v>62</v>
       </c>
       <c r="B71" t="s">
         <v>35</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E71" s="2">
         <v>435703</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H71">
         <v>0.10000019520521164</v>
       </c>
       <c r="I71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J71" s="3"/>
@@ -5710,10 +5726,10 @@
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
       <c r="R71" s="4"/>
-      <c r="S71" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T71" t="s">
+      <c r="S71" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T71" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U71" s="2">
@@ -5728,45 +5744,45 @@
       <c r="X71" s="2">
         <v>672</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Y71" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="Z71">
-        <f>COUNTIF(Y:Y,Y71)</f>
-        <v>1</v>
-      </c>
-      <c r="AA71">
+      <c r="Z71" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA71" s="7">
         <v>10</v>
       </c>
-      <c r="AB71">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28" hidden="1">
+      <c r="AB71" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72">
         <v>63</v>
       </c>
       <c r="B72" t="s">
         <v>35</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E72" s="2">
         <v>435703</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H72">
         <v>0.10000019520521164</v>
       </c>
       <c r="I72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J72" s="3"/>
@@ -5777,10 +5793,10 @@
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
       <c r="R72" s="4"/>
-      <c r="S72" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T72" t="s">
+      <c r="S72" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T72" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U72" s="2">
@@ -5795,45 +5811,45 @@
       <c r="X72" s="2">
         <v>672</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Y72" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="Z72">
-        <f>COUNTIF(Y:Y,Y72)</f>
-        <v>1</v>
-      </c>
-      <c r="AA72">
+      <c r="Z72" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA72" s="7">
         <v>10</v>
       </c>
-      <c r="AB72">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28" hidden="1">
+      <c r="AB72" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73">
         <v>64</v>
       </c>
       <c r="B73" t="s">
         <v>35</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E73" s="2">
         <v>435703</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H73">
         <v>0.10000019520521164</v>
       </c>
       <c r="I73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J73" s="3"/>
@@ -5844,10 +5860,10 @@
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
       <c r="R73" s="4"/>
-      <c r="S73" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T73" t="s">
+      <c r="S73" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T73" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U73" s="2">
@@ -5862,45 +5878,45 @@
       <c r="X73" s="2">
         <v>672</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Y73" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="Z73">
-        <f>COUNTIF(Y:Y,Y73)</f>
-        <v>1</v>
-      </c>
-      <c r="AA73">
+      <c r="Z73" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA73" s="7">
         <v>10</v>
       </c>
-      <c r="AB73">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28" hidden="1">
+      <c r="AB73" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74">
         <v>65</v>
       </c>
       <c r="B74" t="s">
         <v>35</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E74" s="2">
         <v>435703</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H74">
         <v>0.10000019520521164</v>
       </c>
       <c r="I74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J74" s="3"/>
@@ -5911,10 +5927,10 @@
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="R74" s="4"/>
-      <c r="S74" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T74" t="s">
+      <c r="S74" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T74" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U74" s="2">
@@ -5929,45 +5945,45 @@
       <c r="X74" s="2">
         <v>672</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Y74" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Z74">
-        <f>COUNTIF(Y:Y,Y74)</f>
-        <v>1</v>
-      </c>
-      <c r="AA74">
+      <c r="Z74" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA74" s="7">
         <v>30</v>
       </c>
-      <c r="AB74">
-        <f t="shared" si="2"/>
+      <c r="AB74" s="7">
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:28" hidden="1">
+    <row r="75" spans="1:28">
       <c r="A75">
         <v>66</v>
       </c>
       <c r="B75" t="s">
         <v>35</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E75" s="2">
         <v>435703</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H75">
         <v>0.10000019520521164</v>
       </c>
       <c r="I75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J75" s="3"/>
@@ -5978,10 +5994,10 @@
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="R75" s="4"/>
-      <c r="S75" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T75" t="s">
+      <c r="S75" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T75" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U75" s="2">
@@ -5996,45 +6012,45 @@
       <c r="X75" s="2">
         <v>672</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Y75" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="Z75">
-        <f>COUNTIF(Y:Y,Y75)</f>
-        <v>1</v>
-      </c>
-      <c r="AA75">
+      <c r="Z75" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA75" s="7">
         <v>10</v>
       </c>
-      <c r="AB75">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28" hidden="1">
+      <c r="AB75" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
       <c r="A76">
         <v>67</v>
       </c>
       <c r="B76" t="s">
         <v>35</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E76" s="2">
         <v>435703</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H76">
         <v>0.10000019520521164</v>
       </c>
       <c r="I76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J76" s="3"/>
@@ -6045,10 +6061,10 @@
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
       <c r="R76" s="4"/>
-      <c r="S76" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T76" t="s">
+      <c r="S76" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T76" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U76" s="2">
@@ -6063,45 +6079,45 @@
       <c r="X76" s="2">
         <v>672</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Y76" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="Z76">
-        <f>COUNTIF(Y:Y,Y76)</f>
-        <v>1</v>
-      </c>
-      <c r="AA76">
+      <c r="Z76" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA76" s="7">
         <v>10</v>
       </c>
-      <c r="AB76">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28" hidden="1">
+      <c r="AB76" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
       <c r="A77">
         <v>68</v>
       </c>
       <c r="B77" t="s">
         <v>35</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E77" s="2">
         <v>435703</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H77">
         <v>0.10000019520521164</v>
       </c>
       <c r="I77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J77" s="3"/>
@@ -6112,10 +6128,10 @@
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
       <c r="R77" s="4"/>
-      <c r="S77" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T77" t="s">
+      <c r="S77" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T77" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U77" s="2">
@@ -6130,45 +6146,45 @@
       <c r="X77" s="2">
         <v>672</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Y77" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="Z77">
-        <f>COUNTIF(Y:Y,Y77)</f>
-        <v>1</v>
-      </c>
-      <c r="AA77">
+      <c r="Z77" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA77" s="7">
         <v>10</v>
       </c>
-      <c r="AB77">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28" hidden="1">
+      <c r="AB77" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
       <c r="A78">
         <v>69</v>
       </c>
       <c r="B78" t="s">
         <v>35</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E78" s="2">
         <v>435703</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H78">
         <v>0.10000019520521164</v>
       </c>
       <c r="I78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J78" s="3"/>
@@ -6179,10 +6195,10 @@
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
       <c r="R78" s="4"/>
-      <c r="S78" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T78" t="s">
+      <c r="S78" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T78" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U78" s="2">
@@ -6197,45 +6213,45 @@
       <c r="X78" s="2">
         <v>672</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Y78" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="Z78">
-        <f>COUNTIF(Y:Y,Y78)</f>
-        <v>1</v>
-      </c>
-      <c r="AA78">
+      <c r="Z78" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA78" s="7">
         <v>10</v>
       </c>
-      <c r="AB78">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:28" hidden="1">
+      <c r="AB78" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79">
         <v>70</v>
       </c>
       <c r="B79" t="s">
         <v>35</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E79" s="2">
         <v>435703</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H79">
         <v>0.10000019520521164</v>
       </c>
       <c r="I79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J79" s="3"/>
@@ -6246,10 +6262,10 @@
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="R79" s="4"/>
-      <c r="S79" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T79" t="s">
+      <c r="S79" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T79" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U79" s="2">
@@ -6264,45 +6280,45 @@
       <c r="X79" s="2">
         <v>672</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Y79" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="Z79">
-        <f>COUNTIF(Y:Y,Y79)</f>
-        <v>1</v>
-      </c>
-      <c r="AA79">
+      <c r="Z79" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA79" s="7">
         <v>10</v>
       </c>
-      <c r="AB79">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28" hidden="1">
+      <c r="AB79" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80">
         <v>71</v>
       </c>
       <c r="B80" t="s">
         <v>35</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E80" s="2">
         <v>435703</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H80">
         <v>0.10000019520521164</v>
       </c>
       <c r="I80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J80" s="3"/>
@@ -6313,10 +6329,10 @@
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
       <c r="R80" s="4"/>
-      <c r="S80" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T80" t="s">
+      <c r="S80" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T80" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U80" s="2">
@@ -6331,45 +6347,45 @@
       <c r="X80" s="2">
         <v>672</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Y80" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="Z80">
-        <f>COUNTIF(Y:Y,Y80)</f>
-        <v>1</v>
-      </c>
-      <c r="AA80">
+      <c r="Z80" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA80" s="7">
         <v>10</v>
       </c>
-      <c r="AB80">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="1:28" hidden="1">
+      <c r="AB80" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81">
         <v>72</v>
       </c>
       <c r="B81" t="s">
         <v>35</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E81" s="2">
         <v>435703</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H81">
         <v>0.10000019520521164</v>
       </c>
       <c r="I81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J81" s="3"/>
@@ -6380,10 +6396,10 @@
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
       <c r="R81" s="4"/>
-      <c r="S81" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T81" t="s">
+      <c r="S81" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T81" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U81" s="2">
@@ -6398,45 +6414,45 @@
       <c r="X81" s="2">
         <v>672</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Y81" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="Z81">
-        <f>COUNTIF(Y:Y,Y81)</f>
-        <v>1</v>
-      </c>
-      <c r="AA81">
+      <c r="Z81" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA81" s="7">
         <v>30</v>
       </c>
-      <c r="AB81">
-        <f t="shared" si="2"/>
+      <c r="AB81" s="7">
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:28" hidden="1">
+    <row r="82" spans="1:28">
       <c r="A82">
         <v>73</v>
       </c>
       <c r="B82" t="s">
         <v>35</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E82" s="2">
         <v>435703</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H82">
         <v>0.10000019520521164</v>
       </c>
       <c r="I82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J82" s="3"/>
@@ -6447,10 +6463,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="R82" s="4"/>
-      <c r="S82" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T82" t="s">
+      <c r="S82" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T82" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U82" s="2">
@@ -6465,45 +6481,45 @@
       <c r="X82" s="2">
         <v>672</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Y82" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="Z82">
-        <f>COUNTIF(Y:Y,Y82)</f>
-        <v>1</v>
-      </c>
-      <c r="AA82">
+      <c r="Z82" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA82" s="7">
         <v>30</v>
       </c>
-      <c r="AB82">
-        <f t="shared" si="2"/>
+      <c r="AB82" s="7">
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:28" hidden="1">
+    <row r="83" spans="1:28">
       <c r="A83">
         <v>74</v>
       </c>
       <c r="B83" t="s">
         <v>35</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E83" s="2">
         <v>435703</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H83">
         <v>0.10000019520521164</v>
       </c>
       <c r="I83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J83" s="3"/>
@@ -6514,10 +6530,10 @@
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
       <c r="R83" s="4"/>
-      <c r="S83" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T83" t="s">
+      <c r="S83" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T83" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U83" s="2">
@@ -6532,45 +6548,45 @@
       <c r="X83" s="2">
         <v>672</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Y83" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="Z83">
-        <f>COUNTIF(Y:Y,Y83)</f>
-        <v>1</v>
-      </c>
-      <c r="AA83">
+      <c r="Z83" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA83" s="7">
         <v>30</v>
       </c>
-      <c r="AB83">
-        <f t="shared" si="2"/>
+      <c r="AB83" s="7">
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:28" hidden="1">
+    <row r="84" spans="1:28">
       <c r="A84">
         <v>75</v>
       </c>
       <c r="B84" t="s">
         <v>35</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E84" s="2">
         <v>435703</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H84">
         <v>0.10000019520521164</v>
       </c>
       <c r="I84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J84" s="3"/>
@@ -6581,10 +6597,10 @@
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
       <c r="R84" s="4"/>
-      <c r="S84" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T84" t="s">
+      <c r="S84" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T84" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U84" s="2">
@@ -6599,45 +6615,45 @@
       <c r="X84" s="2">
         <v>672</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Y84" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="Z84">
-        <f>COUNTIF(Y:Y,Y84)</f>
-        <v>1</v>
-      </c>
-      <c r="AA84">
+      <c r="Z84" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA84" s="7">
         <v>10</v>
       </c>
-      <c r="AB84">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28" hidden="1">
+      <c r="AB84" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85">
         <v>76</v>
       </c>
       <c r="B85" t="s">
         <v>35</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E85" s="2">
         <v>435703</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H85">
         <v>0.10000019520521164</v>
       </c>
       <c r="I85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J85" s="3"/>
@@ -6648,10 +6664,10 @@
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
       <c r="R85" s="4"/>
-      <c r="S85" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T85" t="s">
+      <c r="S85" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T85" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U85" s="2">
@@ -6666,45 +6682,45 @@
       <c r="X85" s="2">
         <v>672</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Y85" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="Z85">
-        <f>COUNTIF(Y:Y,Y85)</f>
-        <v>1</v>
-      </c>
-      <c r="AA85">
+      <c r="Z85" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA85" s="7">
         <v>10</v>
       </c>
-      <c r="AB85">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:28" hidden="1">
+      <c r="AB85" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86">
         <v>62</v>
       </c>
       <c r="B86" t="s">
         <v>35</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E86" s="2">
         <v>435703</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H86">
         <v>0.10000019520521164</v>
       </c>
       <c r="I86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J86" s="3"/>
@@ -6715,10 +6731,10 @@
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
       <c r="R86" s="4"/>
-      <c r="S86" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T86" t="s">
+      <c r="S86" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T86" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U86" s="2">
@@ -6733,45 +6749,45 @@
       <c r="X86" s="2">
         <v>672</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Y86" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="Z86">
-        <f>COUNTIF(Y:Y,Y86)</f>
-        <v>1</v>
-      </c>
-      <c r="AA86">
+      <c r="Z86" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA86" s="7">
         <v>10</v>
       </c>
-      <c r="AB86">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:28" hidden="1">
+      <c r="AB86" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87">
         <v>63</v>
       </c>
       <c r="B87" t="s">
         <v>35</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E87" s="2">
         <v>435703</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H87">
         <v>0.10000019520521164</v>
       </c>
       <c r="I87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J87" s="3"/>
@@ -6782,10 +6798,10 @@
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
       <c r="R87" s="4"/>
-      <c r="S87" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T87" t="s">
+      <c r="S87" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T87" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U87" s="2">
@@ -6800,45 +6816,45 @@
       <c r="X87" s="2">
         <v>672</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Y87" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="Z87">
-        <f>COUNTIF(Y:Y,Y87)</f>
-        <v>1</v>
-      </c>
-      <c r="AA87">
+      <c r="Z87" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA87" s="7">
         <v>10</v>
       </c>
-      <c r="AB87">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28" hidden="1">
+      <c r="AB87" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88">
         <v>64</v>
       </c>
       <c r="B88" t="s">
         <v>35</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E88" s="2">
         <v>435703</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H88">
         <v>0.10000019520521164</v>
       </c>
       <c r="I88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J88" s="3"/>
@@ -6849,10 +6865,10 @@
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
       <c r="R88" s="4"/>
-      <c r="S88" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T88" t="s">
+      <c r="S88" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T88" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U88" s="2">
@@ -6867,45 +6883,45 @@
       <c r="X88" s="2">
         <v>672</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Y88" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="Z88">
-        <f>COUNTIF(Y:Y,Y88)</f>
-        <v>1</v>
-      </c>
-      <c r="AA88">
+      <c r="Z88" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA88" s="7">
         <v>10</v>
       </c>
-      <c r="AB88">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:28" hidden="1">
+      <c r="AB88" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89">
         <v>65</v>
       </c>
       <c r="B89" t="s">
         <v>35</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E89" s="2">
         <v>435703</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H89">
         <v>0.10000019520521164</v>
       </c>
       <c r="I89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
       <c r="J89" s="3"/>
@@ -6916,10 +6932,10 @@
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
       <c r="R89" s="4"/>
-      <c r="S89" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T89" t="s">
+      <c r="S89" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T89" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U89" s="2">
@@ -6934,51 +6950,51 @@
       <c r="X89" s="2">
         <v>672</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Y89" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="Z89">
-        <f>COUNTIF(Y:Y,Y89)</f>
-        <v>1</v>
-      </c>
-      <c r="AA89">
+      <c r="Z89" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA89" s="7">
         <v>30</v>
       </c>
-      <c r="AB89">
-        <f t="shared" si="2"/>
+      <c r="AB89" s="7">
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:28" hidden="1">
+    <row r="90" spans="1:28">
       <c r="A90">
         <v>66</v>
       </c>
       <c r="B90" t="s">
         <v>35</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E90" s="2">
         <v>435703</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H90">
         <v>0.10000019520521164</v>
       </c>
       <c r="I90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
-      <c r="S90" t="b">
-        <v>0</v>
-      </c>
-      <c r="T90" t="s">
+      <c r="S90" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T90" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U90">
@@ -6993,51 +7009,51 @@
       <c r="X90">
         <v>672</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Y90" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="Z90">
-        <f>COUNTIF(Y:Y,Y90)</f>
-        <v>1</v>
-      </c>
-      <c r="AA90">
+      <c r="Z90" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA90" s="7">
         <v>10</v>
       </c>
-      <c r="AB90">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:28" hidden="1">
+      <c r="AB90" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91">
         <v>67</v>
       </c>
       <c r="B91" t="s">
         <v>35</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E91" s="2">
         <v>435703</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H91">
         <v>0.10000019520521164</v>
       </c>
       <c r="I91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
-      <c r="S91" t="b">
-        <v>0</v>
-      </c>
-      <c r="T91" t="s">
+      <c r="S91" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T91" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U91">
@@ -7052,51 +7068,51 @@
       <c r="X91">
         <v>672</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Y91" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="Z91">
-        <f>COUNTIF(Y:Y,Y91)</f>
-        <v>1</v>
-      </c>
-      <c r="AA91">
+      <c r="Z91" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA91" s="7">
         <v>10</v>
       </c>
-      <c r="AB91">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28" hidden="1">
+      <c r="AB91" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92">
         <v>68</v>
       </c>
       <c r="B92" t="s">
         <v>35</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E92" s="2">
         <v>435703</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H92">
         <v>0.10000019520521164</v>
       </c>
       <c r="I92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
-      <c r="S92" t="b">
-        <v>0</v>
-      </c>
-      <c r="T92" t="s">
+      <c r="S92" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T92" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U92">
@@ -7111,51 +7127,51 @@
       <c r="X92">
         <v>672</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Y92" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="Z92">
-        <f>COUNTIF(Y:Y,Y92)</f>
-        <v>1</v>
-      </c>
-      <c r="AA92">
+      <c r="Z92" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA92" s="7">
         <v>10</v>
       </c>
-      <c r="AB92">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:28" hidden="1">
+      <c r="AB92" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93">
         <v>69</v>
       </c>
       <c r="B93" t="s">
         <v>35</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E93" s="2">
         <v>435703</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H93">
         <v>0.10000019520521164</v>
       </c>
       <c r="I93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
-      <c r="S93" t="b">
-        <v>0</v>
-      </c>
-      <c r="T93" t="s">
+      <c r="S93" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T93" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U93">
@@ -7170,51 +7186,51 @@
       <c r="X93">
         <v>672</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Y93" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="Z93">
-        <f>COUNTIF(Y:Y,Y93)</f>
-        <v>1</v>
-      </c>
-      <c r="AA93">
+      <c r="Z93" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA93" s="7">
         <v>10</v>
       </c>
-      <c r="AB93">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:28" hidden="1">
+      <c r="AB93" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
       <c r="A94">
         <v>70</v>
       </c>
       <c r="B94" t="s">
         <v>35</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E94" s="2">
         <v>435703</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H94">
         <v>0.10000019520521164</v>
       </c>
       <c r="I94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
-      <c r="S94" t="b">
-        <v>0</v>
-      </c>
-      <c r="T94" t="s">
+      <c r="S94" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T94" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U94">
@@ -7229,51 +7245,51 @@
       <c r="X94">
         <v>672</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y94" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Z94">
-        <f>COUNTIF(Y:Y,Y94)</f>
-        <v>1</v>
-      </c>
-      <c r="AA94">
+      <c r="Z94" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA94" s="7">
         <v>10</v>
       </c>
-      <c r="AB94">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:28" hidden="1">
+      <c r="AB94" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
       <c r="A95">
         <v>71</v>
       </c>
       <c r="B95" t="s">
         <v>35</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E95" s="2">
         <v>435703</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H95">
         <v>0.10000019520521164</v>
       </c>
       <c r="I95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
-      <c r="S95" t="b">
-        <v>0</v>
-      </c>
-      <c r="T95" t="s">
+      <c r="S95" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T95" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U95">
@@ -7288,51 +7304,51 @@
       <c r="X95">
         <v>672</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Y95" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="Z95">
-        <f>COUNTIF(Y:Y,Y95)</f>
-        <v>1</v>
-      </c>
-      <c r="AA95">
+      <c r="Z95" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA95" s="7">
         <v>10</v>
       </c>
-      <c r="AB95">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="1:28" hidden="1">
+      <c r="AB95" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96">
         <v>72</v>
       </c>
       <c r="B96" t="s">
         <v>35</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E96" s="2">
         <v>435703</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H96">
         <v>0.10000019520521164</v>
       </c>
       <c r="I96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
-      <c r="S96" t="b">
-        <v>0</v>
-      </c>
-      <c r="T96" t="s">
+      <c r="S96" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T96" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U96">
@@ -7347,51 +7363,51 @@
       <c r="X96">
         <v>672</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Y96" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="Z96">
-        <f>COUNTIF(Y:Y,Y96)</f>
-        <v>1</v>
-      </c>
-      <c r="AA96">
+      <c r="Z96" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA96" s="7">
         <v>30</v>
       </c>
-      <c r="AB96">
-        <f t="shared" si="2"/>
+      <c r="AB96" s="7">
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:28" hidden="1">
+    <row r="97" spans="1:28">
       <c r="A97">
         <v>73</v>
       </c>
       <c r="B97" t="s">
         <v>35</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E97" s="2">
         <v>435703</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H97">
         <v>0.10000019520521164</v>
       </c>
       <c r="I97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
-      <c r="S97" t="b">
-        <v>0</v>
-      </c>
-      <c r="T97" t="s">
+      <c r="S97" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T97" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U97">
@@ -7406,51 +7422,51 @@
       <c r="X97">
         <v>672</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Y97" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="Z97">
-        <f>COUNTIF(Y:Y,Y97)</f>
-        <v>1</v>
-      </c>
-      <c r="AA97">
+      <c r="Z97" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA97" s="7">
         <v>30</v>
       </c>
-      <c r="AB97">
-        <f t="shared" si="2"/>
+      <c r="AB97" s="7">
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:28" hidden="1">
+    <row r="98" spans="1:28">
       <c r="A98">
         <v>74</v>
       </c>
       <c r="B98" t="s">
         <v>35</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E98" s="2">
         <v>435703</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H98">
         <v>0.10000019520521164</v>
       </c>
       <c r="I98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
-      <c r="S98" t="b">
-        <v>0</v>
-      </c>
-      <c r="T98" t="s">
+      <c r="S98" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T98" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U98">
@@ -7465,51 +7481,51 @@
       <c r="X98">
         <v>672</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Y98" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="Z98">
-        <f>COUNTIF(Y:Y,Y98)</f>
-        <v>1</v>
-      </c>
-      <c r="AA98">
+      <c r="Z98" s="7">
+        <f t="shared" ref="Z98:Z129" si="7">COUNTIF(Y:Y,Y98)</f>
+        <v>1</v>
+      </c>
+      <c r="AA98" s="7">
         <v>30</v>
       </c>
-      <c r="AB98">
-        <f t="shared" si="2"/>
+      <c r="AB98" s="7">
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:28" hidden="1">
+    <row r="99" spans="1:28">
       <c r="A99">
         <v>75</v>
       </c>
       <c r="B99" t="s">
         <v>35</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E99" s="2">
         <v>435703</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H99">
         <v>0.10000019520521164</v>
       </c>
       <c r="I99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
-      <c r="S99" t="b">
-        <v>0</v>
-      </c>
-      <c r="T99" t="s">
+      <c r="S99" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T99" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U99">
@@ -7524,51 +7540,51 @@
       <c r="X99">
         <v>672</v>
       </c>
-      <c r="Y99" t="s">
+      <c r="Y99" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="Z99">
-        <f>COUNTIF(Y:Y,Y99)</f>
-        <v>1</v>
-      </c>
-      <c r="AA99">
+      <c r="Z99" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AA99" s="7">
         <v>10</v>
       </c>
-      <c r="AB99">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:28" hidden="1">
+      <c r="AB99" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28">
       <c r="A100">
         <v>76</v>
       </c>
       <c r="B100" t="s">
         <v>35</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E100" s="2">
         <v>435703</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H100">
         <v>0.10000019520521164</v>
       </c>
       <c r="I100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0000136643648139E-2</v>
       </c>
-      <c r="S100" t="b">
-        <v>0</v>
-      </c>
-      <c r="T100" t="s">
+      <c r="S100" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T100" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U100">
@@ -7583,45 +7599,45 @@
       <c r="X100">
         <v>672</v>
       </c>
-      <c r="Y100" t="s">
+      <c r="Y100" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="Z100">
-        <f>COUNTIF(Y:Y,Y100)</f>
-        <v>1</v>
-      </c>
-      <c r="AA100">
+      <c r="Z100" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AA100" s="7">
         <v>10</v>
       </c>
-      <c r="AB100">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:28" hidden="1">
+      <c r="AB100" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
       <c r="A101">
         <v>1</v>
       </c>
       <c r="B101" t="s">
         <v>35</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E101" s="2">
         <v>419721</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="F101" s="8" t="s">
         <v>122</v>
       </c>
       <c r="H101">
         <v>3</v>
       </c>
       <c r="I101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="J101" s="3"/>
@@ -7632,10 +7648,10 @@
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
       <c r="R101" s="4"/>
-      <c r="S101" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T101" t="s">
+      <c r="S101" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T101" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U101" s="2">
@@ -7650,43 +7666,43 @@
       <c r="X101" s="2">
         <v>336</v>
       </c>
-      <c r="Y101" t="s">
+      <c r="Y101" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="Z101">
+      <c r="Z101" s="7">
         <v>3</v>
       </c>
-      <c r="AA101">
+      <c r="AA101" s="7">
         <v>10</v>
       </c>
-      <c r="AB101">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:28" hidden="1">
+      <c r="AB101" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28">
       <c r="A102">
         <v>2</v>
       </c>
       <c r="B102" t="s">
         <v>35</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E102" s="2">
         <v>419721</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="F102" s="8" t="s">
         <v>122</v>
       </c>
       <c r="H102">
         <v>1.9999979138374329</v>
       </c>
       <c r="I102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3999985396862029</v>
       </c>
       <c r="J102" s="3"/>
@@ -7697,10 +7713,10 @@
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
       <c r="R102" s="4"/>
-      <c r="S102" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T102" t="s">
+      <c r="S102" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T102" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U102" s="2">
@@ -7715,43 +7731,43 @@
       <c r="X102" s="2">
         <v>336</v>
       </c>
-      <c r="Y102" t="s">
+      <c r="Y102" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="Z102">
+      <c r="Z102" s="7">
         <v>3</v>
       </c>
-      <c r="AA102">
+      <c r="AA102" s="7">
         <v>30</v>
       </c>
-      <c r="AB102">
+      <c r="AB102" s="7">
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:28" hidden="1">
+    <row r="103" spans="1:28">
       <c r="A103">
         <v>3</v>
       </c>
       <c r="B103" t="s">
         <v>35</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E103" s="2">
         <v>419721</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="F103" s="8" t="s">
         <v>122</v>
       </c>
       <c r="H103">
         <v>1.0000019967556</v>
       </c>
       <c r="I103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J103" s="3"/>
@@ -7762,10 +7778,10 @@
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
       <c r="R103" s="4"/>
-      <c r="S103" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T103" t="s">
+      <c r="S103" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T103" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U103" s="2">
@@ -7780,43 +7796,43 @@
       <c r="X103" s="2">
         <v>336</v>
       </c>
-      <c r="Y103" t="s">
+      <c r="Y103" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="Z103">
+      <c r="Z103" s="7">
         <v>3</v>
       </c>
-      <c r="AA103">
+      <c r="AA103" s="7">
         <v>10</v>
       </c>
-      <c r="AB103">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:28" hidden="1">
+      <c r="AB103" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28">
       <c r="A104">
         <v>4</v>
       </c>
       <c r="B104" t="s">
         <v>35</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E104" s="2">
         <v>419721</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="F104" s="8" t="s">
         <v>122</v>
       </c>
       <c r="H104">
         <v>0.49999979138374329</v>
       </c>
       <c r="I104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J104" s="3"/>
@@ -7827,10 +7843,10 @@
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
       <c r="R104" s="4"/>
-      <c r="S104" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T104" t="s">
+      <c r="S104" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T104" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U104" s="2">
@@ -7845,43 +7861,43 @@
       <c r="X104" s="2">
         <v>336</v>
       </c>
-      <c r="Y104" t="s">
+      <c r="Y104" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="Z104">
+      <c r="Z104" s="7">
         <v>3</v>
       </c>
-      <c r="AA104">
+      <c r="AA104" s="7">
         <v>10</v>
       </c>
-      <c r="AB104">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:28" hidden="1">
+      <c r="AB104" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28">
       <c r="A105">
         <v>5</v>
       </c>
       <c r="B105" t="s">
         <v>35</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E105" s="2">
         <v>419721</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="F105" s="8" t="s">
         <v>122</v>
       </c>
       <c r="H105">
         <v>0.49999979138374329</v>
       </c>
       <c r="I105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J105" s="3"/>
@@ -7892,10 +7908,10 @@
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
       <c r="R105" s="4"/>
-      <c r="S105" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T105" t="s">
+      <c r="S105" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T105" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U105" s="2">
@@ -7910,43 +7926,43 @@
       <c r="X105" s="2">
         <v>672</v>
       </c>
-      <c r="Y105" t="s">
+      <c r="Y105" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="Z105">
+      <c r="Z105" s="7">
         <v>2</v>
       </c>
-      <c r="AA105">
-        <v>20</v>
-      </c>
-      <c r="AB105">
+      <c r="AA105" s="7">
+        <v>20</v>
+      </c>
+      <c r="AB105" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="106" spans="1:28" hidden="1">
+    <row r="106" spans="1:28">
       <c r="A106">
         <v>6</v>
       </c>
       <c r="B106" t="s">
         <v>35</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E106" s="2">
         <v>419721</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="F106" s="8" t="s">
         <v>122</v>
       </c>
       <c r="H106">
         <v>1.0000019967556</v>
       </c>
       <c r="I106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J106" s="3"/>
@@ -7957,10 +7973,10 @@
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
       <c r="R106" s="4"/>
-      <c r="S106" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T106" t="s">
+      <c r="S106" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T106" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U106" s="2">
@@ -7975,43 +7991,43 @@
       <c r="X106" s="2">
         <v>672</v>
       </c>
-      <c r="Y106" t="s">
+      <c r="Y106" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="Z106">
+      <c r="Z106" s="7">
         <v>2</v>
       </c>
-      <c r="AA106">
-        <v>20</v>
-      </c>
-      <c r="AB106">
+      <c r="AA106" s="7">
+        <v>20</v>
+      </c>
+      <c r="AB106" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:28" hidden="1">
+    <row r="107" spans="1:28">
       <c r="A107">
         <v>7</v>
       </c>
       <c r="B107" t="s">
         <v>35</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E107" s="2">
         <v>419721</v>
       </c>
-      <c r="F107" s="6" t="s">
+      <c r="F107" s="8" t="s">
         <v>122</v>
       </c>
       <c r="H107">
         <v>1.9999979138374329</v>
       </c>
       <c r="I107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3999985396862029</v>
       </c>
       <c r="J107" s="3"/>
@@ -8022,10 +8038,10 @@
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
       <c r="R107" s="4"/>
-      <c r="S107" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T107" t="s">
+      <c r="S107" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T107" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U107" s="2">
@@ -8040,43 +8056,43 @@
       <c r="X107" s="2">
         <v>1344</v>
       </c>
-      <c r="Y107" t="s">
+      <c r="Y107" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="Z107">
-        <v>1</v>
-      </c>
-      <c r="AA107">
+      <c r="Z107" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA107" s="7">
         <v>10</v>
       </c>
-      <c r="AB107">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:28" hidden="1">
+      <c r="AB107" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28">
       <c r="A108">
         <v>8</v>
       </c>
       <c r="B108" t="s">
         <v>35</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E108" s="2">
         <v>419721</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="F108" s="8" t="s">
         <v>122</v>
       </c>
       <c r="H108">
         <v>1.5</v>
       </c>
       <c r="I108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="J108" s="3"/>
@@ -8087,10 +8103,10 @@
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
       <c r="R108" s="4"/>
-      <c r="S108" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T108" t="s">
+      <c r="S108" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T108" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U108" s="2">
@@ -8105,43 +8121,43 @@
       <c r="X108" s="2">
         <v>1344</v>
       </c>
-      <c r="Y108" t="s">
+      <c r="Y108" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="Z108">
-        <v>1</v>
-      </c>
-      <c r="AA108">
+      <c r="Z108" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA108" s="7">
         <v>10</v>
       </c>
-      <c r="AB108">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:28" hidden="1">
+      <c r="AB108" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28">
       <c r="A109">
         <v>9</v>
       </c>
       <c r="B109" t="s">
         <v>35</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E109" s="2">
         <v>419721</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="F109" s="8" t="s">
         <v>122</v>
       </c>
       <c r="H109">
         <v>1.9999979138374329</v>
       </c>
       <c r="I109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3999985396862029</v>
       </c>
       <c r="J109" s="3"/>
@@ -8152,10 +8168,10 @@
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
       <c r="R109" s="4"/>
-      <c r="S109" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T109" t="s">
+      <c r="S109" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T109" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U109" s="2">
@@ -8170,49 +8186,49 @@
       <c r="X109" s="2">
         <v>1344</v>
       </c>
-      <c r="Y109" t="s">
+      <c r="Y109" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="Z109">
-        <v>1</v>
-      </c>
-      <c r="AA109">
+      <c r="Z109" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA109" s="7">
         <v>10</v>
       </c>
-      <c r="AB109">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:28" hidden="1">
+      <c r="AB109" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28">
       <c r="A110">
         <v>29</v>
       </c>
       <c r="B110" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="11">
         <v>11</v>
       </c>
       <c r="E110">
         <v>425349</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H110">
         <v>3</v>
       </c>
       <c r="I110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.0999999999999996</v>
       </c>
-      <c r="S110" t="b">
-        <v>0</v>
-      </c>
-      <c r="T110" t="s">
+      <c r="S110" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T110" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U110">
@@ -8227,49 +8243,49 @@
       <c r="X110">
         <v>672</v>
       </c>
-      <c r="Y110" t="s">
+      <c r="Y110" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="Z110">
-        <v>1</v>
-      </c>
-      <c r="AA110">
+      <c r="Z110" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA110" s="7">
         <v>10</v>
       </c>
-      <c r="AB110">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="1:28" hidden="1">
+      <c r="AB110" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28">
       <c r="A111">
         <v>31</v>
       </c>
       <c r="B111" t="s">
         <v>35</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="11">
         <v>11</v>
       </c>
       <c r="E111">
         <v>425349</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H111">
         <v>1.5</v>
       </c>
       <c r="I111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0499999999999998</v>
       </c>
-      <c r="S111" t="b">
-        <v>0</v>
-      </c>
-      <c r="T111" t="s">
+      <c r="S111" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T111" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U111">
@@ -8284,49 +8300,49 @@
       <c r="X111">
         <v>672</v>
       </c>
-      <c r="Y111" t="s">
+      <c r="Y111" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="Z111">
-        <v>1</v>
-      </c>
-      <c r="AA111">
+      <c r="Z111" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA111" s="7">
         <v>10</v>
       </c>
-      <c r="AB111">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:28" hidden="1">
+      <c r="AB111" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28">
       <c r="A112">
         <v>30</v>
       </c>
       <c r="B112" t="s">
         <v>35</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="11">
         <v>11</v>
       </c>
       <c r="E112">
         <v>425349</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H112">
         <v>1.5</v>
       </c>
       <c r="I112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0499999999999998</v>
       </c>
-      <c r="S112" t="b">
-        <v>0</v>
-      </c>
-      <c r="T112" t="s">
+      <c r="S112" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T112" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U112">
@@ -8341,49 +8357,49 @@
       <c r="X112">
         <v>672</v>
       </c>
-      <c r="Y112" t="s">
+      <c r="Y112" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="Z112">
-        <v>1</v>
-      </c>
-      <c r="AA112">
+      <c r="Z112" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA112" s="7">
         <v>10</v>
       </c>
-      <c r="AB112">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="1:28" hidden="1">
+      <c r="AB112" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28">
       <c r="A113">
         <v>28</v>
       </c>
       <c r="B113" t="s">
         <v>35</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="11">
         <v>11</v>
       </c>
       <c r="E113">
         <v>425349</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H113">
         <v>1.9999979138374331</v>
       </c>
       <c r="I113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3999985396862031</v>
       </c>
-      <c r="S113" t="b">
-        <v>0</v>
-      </c>
-      <c r="T113" t="s">
+      <c r="S113" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T113" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U113">
@@ -8398,49 +8414,49 @@
       <c r="X113">
         <v>672</v>
       </c>
-      <c r="Y113" t="s">
+      <c r="Y113" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="Z113">
-        <v>1</v>
-      </c>
-      <c r="AA113">
+      <c r="Z113" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA113" s="7">
         <v>10</v>
       </c>
-      <c r="AB113">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114" spans="1:28" hidden="1">
+      <c r="AB113" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28">
       <c r="A114">
         <v>35</v>
       </c>
       <c r="B114" t="s">
         <v>35</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="11">
         <v>11</v>
       </c>
       <c r="E114">
         <v>425349</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H114">
         <v>3</v>
       </c>
       <c r="I114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.0999999999999996</v>
       </c>
-      <c r="S114" t="b">
-        <v>0</v>
-      </c>
-      <c r="T114" t="s">
+      <c r="S114" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T114" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U114">
@@ -8455,49 +8471,49 @@
       <c r="X114">
         <v>672</v>
       </c>
-      <c r="Y114" t="s">
+      <c r="Y114" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="Z114">
-        <v>1</v>
-      </c>
-      <c r="AA114">
-        <v>20</v>
-      </c>
-      <c r="AB114">
+      <c r="Z114" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA114" s="7">
+        <v>20</v>
+      </c>
+      <c r="AB114" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="1:28" hidden="1">
+    <row r="115" spans="1:28">
       <c r="A115">
         <v>32</v>
       </c>
       <c r="B115" t="s">
         <v>35</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C115" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="11">
         <v>11</v>
       </c>
       <c r="E115">
         <v>425349</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H115">
         <v>1.5</v>
       </c>
       <c r="I115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0499999999999998</v>
       </c>
-      <c r="S115" t="b">
-        <v>0</v>
-      </c>
-      <c r="T115" t="s">
+      <c r="S115" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T115" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U115">
@@ -8512,49 +8528,49 @@
       <c r="X115">
         <v>672</v>
       </c>
-      <c r="Y115" t="s">
+      <c r="Y115" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="Z115">
-        <v>1</v>
-      </c>
-      <c r="AA115">
+      <c r="Z115" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA115" s="7">
         <v>10</v>
       </c>
-      <c r="AB115">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:28" hidden="1">
+      <c r="AB115" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28">
       <c r="A116">
         <v>36</v>
       </c>
       <c r="B116" t="s">
         <v>35</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C116" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="11">
         <v>11</v>
       </c>
       <c r="E116">
         <v>425349</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H116">
         <v>1.0000019967556</v>
       </c>
       <c r="I116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.70000139772891989</v>
       </c>
-      <c r="S116" t="b">
-        <v>0</v>
-      </c>
-      <c r="T116" t="s">
+      <c r="S116" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T116" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U116">
@@ -8569,49 +8585,49 @@
       <c r="X116">
         <v>672</v>
       </c>
-      <c r="Y116" t="s">
+      <c r="Y116" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="Z116">
-        <v>1</v>
-      </c>
-      <c r="AA116">
+      <c r="Z116" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA116" s="7">
         <v>10</v>
       </c>
-      <c r="AB116">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:28" hidden="1">
+      <c r="AB116" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28">
       <c r="A117">
         <v>34</v>
       </c>
       <c r="B117" t="s">
         <v>35</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="11">
         <v>11</v>
       </c>
       <c r="E117">
         <v>425349</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H117">
         <v>4.0000019073486328</v>
       </c>
       <c r="I117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.8000013351440427</v>
       </c>
-      <c r="S117" t="b">
-        <v>0</v>
-      </c>
-      <c r="T117" t="s">
+      <c r="S117" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T117" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U117">
@@ -8626,49 +8642,49 @@
       <c r="X117">
         <v>672</v>
       </c>
-      <c r="Y117" t="s">
+      <c r="Y117" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="Z117">
-        <v>1</v>
-      </c>
-      <c r="AA117">
+      <c r="Z117" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA117" s="7">
         <v>10</v>
       </c>
-      <c r="AB117">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:28" hidden="1">
+      <c r="AB117" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28">
       <c r="A118">
         <v>33</v>
       </c>
       <c r="B118" t="s">
         <v>35</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="11">
         <v>11</v>
       </c>
       <c r="E118">
         <v>425349</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H118">
         <v>6</v>
       </c>
       <c r="I118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="S118" t="b">
-        <v>0</v>
-      </c>
-      <c r="T118" t="s">
+      <c r="S118" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T118" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U118">
@@ -8683,49 +8699,49 @@
       <c r="X118">
         <v>672</v>
       </c>
-      <c r="Y118" t="s">
+      <c r="Y118" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="Z118">
-        <v>1</v>
-      </c>
-      <c r="AA118">
+      <c r="Z118" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA118" s="7">
         <v>10</v>
       </c>
-      <c r="AB118">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" spans="1:28" hidden="1">
+      <c r="AB118" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28">
       <c r="A119">
         <v>29</v>
       </c>
       <c r="B119" t="s">
         <v>35</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C119" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="11">
         <v>11</v>
       </c>
       <c r="E119">
         <v>425349</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H119">
         <v>3</v>
       </c>
       <c r="I119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.0999999999999996</v>
       </c>
-      <c r="S119" t="b">
-        <v>0</v>
-      </c>
-      <c r="T119" t="s">
+      <c r="S119" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T119" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U119">
@@ -8740,49 +8756,49 @@
       <c r="X119">
         <v>672</v>
       </c>
-      <c r="Y119" s="6" t="s">
+      <c r="Y119" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="Z119">
-        <v>1</v>
-      </c>
-      <c r="AA119">
+      <c r="Z119" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA119" s="7">
         <v>10</v>
       </c>
-      <c r="AB119">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="1:28" hidden="1">
+      <c r="AB119" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28">
       <c r="A120">
         <v>31</v>
       </c>
       <c r="B120" t="s">
         <v>35</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C120" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="11">
         <v>11</v>
       </c>
       <c r="E120">
         <v>425349</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H120">
         <v>1.5</v>
       </c>
       <c r="I120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0499999999999998</v>
       </c>
-      <c r="S120" t="b">
-        <v>0</v>
-      </c>
-      <c r="T120" t="s">
+      <c r="S120" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T120" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U120">
@@ -8797,49 +8813,49 @@
       <c r="X120">
         <v>672</v>
       </c>
-      <c r="Y120" t="s">
+      <c r="Y120" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="Z120">
-        <v>1</v>
-      </c>
-      <c r="AA120">
+      <c r="Z120" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA120" s="7">
         <v>10</v>
       </c>
-      <c r="AB120">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:28" hidden="1">
+      <c r="AB120" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28">
       <c r="A121">
         <v>30</v>
       </c>
       <c r="B121" t="s">
         <v>35</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="C121" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="11">
         <v>11</v>
       </c>
       <c r="E121">
         <v>425349</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H121">
         <v>1.5</v>
       </c>
       <c r="I121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0499999999999998</v>
       </c>
-      <c r="S121" t="b">
-        <v>0</v>
-      </c>
-      <c r="T121" t="s">
+      <c r="S121" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T121" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U121">
@@ -8854,49 +8870,49 @@
       <c r="X121">
         <v>672</v>
       </c>
-      <c r="Y121" t="s">
+      <c r="Y121" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="Z121">
-        <v>1</v>
-      </c>
-      <c r="AA121">
+      <c r="Z121" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA121" s="7">
         <v>10</v>
       </c>
-      <c r="AB121">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="122" spans="1:28" hidden="1">
+      <c r="AB121" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28">
       <c r="A122">
         <v>28</v>
       </c>
       <c r="B122" t="s">
         <v>35</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C122" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="11">
         <v>11</v>
       </c>
       <c r="E122">
         <v>425349</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H122">
         <v>1.9999979138374331</v>
       </c>
       <c r="I122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3999985396862031</v>
       </c>
-      <c r="S122" t="b">
-        <v>0</v>
-      </c>
-      <c r="T122" t="s">
+      <c r="S122" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T122" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U122">
@@ -8911,49 +8927,49 @@
       <c r="X122">
         <v>672</v>
       </c>
-      <c r="Y122" t="s">
+      <c r="Y122" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="Z122">
-        <v>1</v>
-      </c>
-      <c r="AA122">
+      <c r="Z122" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA122" s="7">
         <v>10</v>
       </c>
-      <c r="AB122">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:28" hidden="1">
+      <c r="AB122" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28">
       <c r="A123">
         <v>35</v>
       </c>
       <c r="B123" t="s">
         <v>35</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="C123" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="11">
         <v>11</v>
       </c>
       <c r="E123">
         <v>425349</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H123">
         <v>3</v>
       </c>
       <c r="I123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.0999999999999996</v>
       </c>
-      <c r="S123" t="b">
-        <v>0</v>
-      </c>
-      <c r="T123" t="s">
+      <c r="S123" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T123" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U123">
@@ -8968,49 +8984,49 @@
       <c r="X123">
         <v>672</v>
       </c>
-      <c r="Y123" t="s">
+      <c r="Y123" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="Z123">
-        <v>1</v>
-      </c>
-      <c r="AA123">
-        <v>20</v>
-      </c>
-      <c r="AB123">
+      <c r="Z123" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA123" s="7">
+        <v>20</v>
+      </c>
+      <c r="AB123" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="1:28" hidden="1">
+    <row r="124" spans="1:28">
       <c r="A124">
         <v>32</v>
       </c>
       <c r="B124" t="s">
         <v>35</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C124" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="11">
         <v>11</v>
       </c>
       <c r="E124">
         <v>425349</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H124">
         <v>1.5</v>
       </c>
       <c r="I124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0499999999999998</v>
       </c>
-      <c r="S124" t="b">
-        <v>0</v>
-      </c>
-      <c r="T124" t="s">
+      <c r="S124" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T124" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U124">
@@ -9025,49 +9041,49 @@
       <c r="X124">
         <v>672</v>
       </c>
-      <c r="Y124" t="s">
+      <c r="Y124" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="Z124">
-        <v>1</v>
-      </c>
-      <c r="AA124">
+      <c r="Z124" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA124" s="7">
         <v>10</v>
       </c>
-      <c r="AB124">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125" spans="1:28" hidden="1">
+      <c r="AB124" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28">
       <c r="A125">
         <v>36</v>
       </c>
       <c r="B125" t="s">
         <v>35</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="C125" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="11">
         <v>11</v>
       </c>
       <c r="E125">
         <v>425349</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H125">
         <v>1.0000019967556</v>
       </c>
       <c r="I125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.70000139772891989</v>
       </c>
-      <c r="S125" t="b">
-        <v>0</v>
-      </c>
-      <c r="T125" t="s">
+      <c r="S125" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T125" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U125">
@@ -9082,49 +9098,49 @@
       <c r="X125">
         <v>672</v>
       </c>
-      <c r="Y125" t="s">
+      <c r="Y125" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="Z125">
-        <v>1</v>
-      </c>
-      <c r="AA125">
+      <c r="Z125" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA125" s="7">
         <v>10</v>
       </c>
-      <c r="AB125">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" spans="1:28" hidden="1">
+      <c r="AB125" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28">
       <c r="A126">
         <v>34</v>
       </c>
       <c r="B126" t="s">
         <v>35</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="11">
         <v>11</v>
       </c>
       <c r="E126">
         <v>425349</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H126">
         <v>4.0000019073486328</v>
       </c>
       <c r="I126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.8000013351440427</v>
       </c>
-      <c r="S126" t="b">
-        <v>0</v>
-      </c>
-      <c r="T126" t="s">
+      <c r="S126" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T126" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U126">
@@ -9139,49 +9155,49 @@
       <c r="X126">
         <v>672</v>
       </c>
-      <c r="Y126" t="s">
+      <c r="Y126" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="Z126">
-        <v>1</v>
-      </c>
-      <c r="AA126">
+      <c r="Z126" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA126" s="7">
         <v>10</v>
       </c>
-      <c r="AB126">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="1:28" hidden="1">
+      <c r="AB126" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28">
       <c r="A127">
         <v>33</v>
       </c>
       <c r="B127" t="s">
         <v>35</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C127" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="11">
         <v>11</v>
       </c>
       <c r="E127">
         <v>425349</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H127">
         <v>6</v>
       </c>
       <c r="I127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="S127" t="b">
-        <v>0</v>
-      </c>
-      <c r="T127" t="s">
+      <c r="S127" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T127" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U127">
@@ -9196,43 +9212,43 @@
       <c r="X127">
         <v>672</v>
       </c>
-      <c r="Y127" t="s">
+      <c r="Y127" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="Z127">
-        <v>1</v>
-      </c>
-      <c r="AA127">
+      <c r="Z127" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA127" s="7">
         <v>10</v>
       </c>
-      <c r="AB127">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="128" spans="1:28" hidden="1">
+      <c r="AB127" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28">
       <c r="A128">
         <v>52</v>
       </c>
       <c r="B128" t="s">
         <v>35</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="C128" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="11">
         <v>10</v>
       </c>
       <c r="E128" s="2">
         <v>431058</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H128">
         <v>0.49999979138374329</v>
       </c>
       <c r="I128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J128" s="3"/>
@@ -9243,10 +9259,10 @@
       <c r="O128" s="3"/>
       <c r="P128" s="3"/>
       <c r="R128" s="4"/>
-      <c r="S128" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T128" t="s">
+      <c r="S128" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T128" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U128" s="2">
@@ -9261,45 +9277,45 @@
       <c r="X128" s="2">
         <v>672</v>
       </c>
-      <c r="Y128" t="s">
+      <c r="Y128" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="Z128">
-        <f>COUNTIF(Y:Y,Y128)</f>
-        <v>1</v>
-      </c>
-      <c r="AA128">
+      <c r="Z128" s="7">
+        <f t="shared" ref="Z128:Z135" si="8">COUNTIF(Y:Y,Y128)</f>
+        <v>1</v>
+      </c>
+      <c r="AA128" s="7">
         <v>30</v>
       </c>
-      <c r="AB128">
-        <f t="shared" ref="AB128:AB131" si="4">IF(R128="OK",AA128,AA128*2)</f>
+      <c r="AB128" s="7">
+        <f t="shared" ref="AB128:AB131" si="9">IF(R128="OK",AA128,AA128*2)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="129" spans="1:28" hidden="1">
+    <row r="129" spans="1:28">
       <c r="A129">
         <v>53</v>
       </c>
       <c r="B129" t="s">
         <v>35</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C129" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="11">
         <v>10</v>
       </c>
       <c r="E129" s="2">
         <v>431058</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H129">
         <v>0.49999979138374329</v>
       </c>
       <c r="I129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J129" s="3"/>
@@ -9310,10 +9326,10 @@
       <c r="O129" s="3"/>
       <c r="P129" s="3"/>
       <c r="R129" s="4"/>
-      <c r="S129" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T129" t="s">
+      <c r="S129" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T129" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U129" s="2">
@@ -9328,45 +9344,45 @@
       <c r="X129" s="2">
         <v>672</v>
       </c>
-      <c r="Y129" t="s">
+      <c r="Y129" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="Z129">
-        <f>COUNTIF(Y:Y,Y129)</f>
-        <v>1</v>
-      </c>
-      <c r="AA129">
+      <c r="Z129" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA129" s="7">
         <v>30</v>
       </c>
-      <c r="AB129">
-        <f t="shared" si="4"/>
+      <c r="AB129" s="7">
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="1:28" hidden="1">
+    <row r="130" spans="1:28">
       <c r="A130">
         <v>54</v>
       </c>
       <c r="B130" t="s">
         <v>35</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="C130" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="11">
         <v>10</v>
       </c>
       <c r="E130" s="2">
         <v>431058</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H130">
         <v>3</v>
       </c>
       <c r="I130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="J130" s="3"/>
@@ -9377,10 +9393,10 @@
       <c r="O130" s="3"/>
       <c r="P130" s="3"/>
       <c r="R130" s="4"/>
-      <c r="S130" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T130" t="s">
+      <c r="S130" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T130" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U130" s="2">
@@ -9395,45 +9411,45 @@
       <c r="X130" s="2">
         <v>1344</v>
       </c>
-      <c r="Y130" t="s">
+      <c r="Y130" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="Z130">
-        <f>COUNTIF(Y:Y,Y130)</f>
-        <v>1</v>
-      </c>
-      <c r="AA130">
+      <c r="Z130" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA130" s="7">
         <v>30</v>
       </c>
-      <c r="AB130">
-        <f t="shared" si="4"/>
+      <c r="AB130" s="7">
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:28" hidden="1">
+    <row r="131" spans="1:28">
       <c r="A131">
         <v>55</v>
       </c>
       <c r="B131" t="s">
         <v>35</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="C131" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="11">
         <v>10</v>
       </c>
       <c r="E131" s="2">
         <v>431058</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H131">
         <v>1.0000019967556</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I135" si="5">H131*0.7</f>
+        <f t="shared" ref="I131:I135" si="10">H131*0.7</f>
         <v>0.70000139772891989</v>
       </c>
       <c r="J131" s="3"/>
@@ -9444,10 +9460,10 @@
       <c r="O131" s="3"/>
       <c r="P131" s="3"/>
       <c r="R131" s="4"/>
-      <c r="S131" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T131" t="s">
+      <c r="S131" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T131" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U131" s="2">
@@ -9462,45 +9478,45 @@
       <c r="X131" s="2">
         <v>1344</v>
       </c>
-      <c r="Y131" t="s">
+      <c r="Y131" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="Z131">
-        <f>COUNTIF(Y:Y,Y131)</f>
-        <v>1</v>
-      </c>
-      <c r="AA131">
+      <c r="Z131" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA131" s="7">
         <v>30</v>
       </c>
-      <c r="AB131">
-        <f t="shared" si="4"/>
+      <c r="AB131" s="7">
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:28" hidden="1">
+    <row r="132" spans="1:28">
       <c r="A132">
         <v>52</v>
       </c>
       <c r="B132" t="s">
         <v>35</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C132" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="11">
         <v>10</v>
       </c>
       <c r="E132" s="2">
         <v>431058</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H132">
         <v>0.49999979138374329</v>
       </c>
       <c r="I132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J132" s="3"/>
@@ -9511,10 +9527,10 @@
       <c r="O132" s="3"/>
       <c r="P132" s="3"/>
       <c r="R132" s="4"/>
-      <c r="S132" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T132" t="s">
+      <c r="S132" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T132" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U132" s="2">
@@ -9529,45 +9545,45 @@
       <c r="X132" s="2">
         <v>672</v>
       </c>
-      <c r="Y132" t="s">
+      <c r="Y132" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="Z132">
-        <f>COUNTIF(Y:Y,Y132)</f>
-        <v>1</v>
-      </c>
-      <c r="AA132">
+      <c r="Z132" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA132" s="7">
         <v>30</v>
       </c>
-      <c r="AB132">
-        <f t="shared" ref="AB132:AB135" si="6">IF(R132="OK",AA132,AA132*2)</f>
+      <c r="AB132" s="7">
+        <f t="shared" ref="AB132:AB135" si="11">IF(R132="OK",AA132,AA132*2)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:28" hidden="1">
+    <row r="133" spans="1:28">
       <c r="A133">
         <v>53</v>
       </c>
       <c r="B133" t="s">
         <v>35</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="C133" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="11">
         <v>10</v>
       </c>
       <c r="E133" s="2">
         <v>431058</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H133">
         <v>0.49999979138374329</v>
       </c>
       <c r="I133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.34999985396862027</v>
       </c>
       <c r="J133" s="3"/>
@@ -9578,10 +9594,10 @@
       <c r="O133" s="3"/>
       <c r="P133" s="3"/>
       <c r="R133" s="4"/>
-      <c r="S133" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T133" t="s">
+      <c r="S133" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T133" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U133" s="2">
@@ -9596,45 +9612,45 @@
       <c r="X133" s="2">
         <v>672</v>
       </c>
-      <c r="Y133" t="s">
+      <c r="Y133" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="Z133">
-        <f>COUNTIF(Y:Y,Y133)</f>
-        <v>1</v>
-      </c>
-      <c r="AA133">
+      <c r="Z133" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA133" s="7">
         <v>30</v>
       </c>
-      <c r="AB133">
-        <f t="shared" si="6"/>
+      <c r="AB133" s="7">
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:28" hidden="1">
+    <row r="134" spans="1:28">
       <c r="A134">
         <v>54</v>
       </c>
       <c r="B134" t="s">
         <v>35</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="C134" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="11">
         <v>10</v>
       </c>
       <c r="E134" s="2">
         <v>431058</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H134">
         <v>3</v>
       </c>
       <c r="I134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="J134" s="3"/>
@@ -9645,10 +9661,10 @@
       <c r="O134" s="3"/>
       <c r="P134" s="3"/>
       <c r="R134" s="4"/>
-      <c r="S134" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T134" t="s">
+      <c r="S134" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T134" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U134" s="2">
@@ -9663,45 +9679,45 @@
       <c r="X134" s="2">
         <v>1344</v>
       </c>
-      <c r="Y134" t="s">
+      <c r="Y134" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="Z134">
-        <f>COUNTIF(Y:Y,Y134)</f>
-        <v>1</v>
-      </c>
-      <c r="AA134">
+      <c r="Z134" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA134" s="7">
         <v>30</v>
       </c>
-      <c r="AB134">
-        <f t="shared" si="6"/>
+      <c r="AB134" s="7">
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:28" hidden="1">
+    <row r="135" spans="1:28">
       <c r="A135">
         <v>55</v>
       </c>
       <c r="B135" t="s">
         <v>35</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="C135" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="11">
         <v>10</v>
       </c>
       <c r="E135" s="2">
         <v>431058</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H135">
         <v>1.0000019967556</v>
       </c>
       <c r="I135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.70000139772891989</v>
       </c>
       <c r="J135" s="3"/>
@@ -9712,10 +9728,10 @@
       <c r="O135" s="3"/>
       <c r="P135" s="3"/>
       <c r="R135" s="4"/>
-      <c r="S135" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T135" t="s">
+      <c r="S135" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T135" s="7" t="s">
         <v>33</v>
       </c>
       <c r="U135" s="2">
@@ -9730,40 +9746,23 @@
       <c r="X135" s="2">
         <v>1344</v>
       </c>
-      <c r="Y135" t="s">
+      <c r="Y135" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="Z135">
-        <f>COUNTIF(Y:Y,Y135)</f>
-        <v>1</v>
-      </c>
-      <c r="AA135">
+      <c r="Z135" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA135" s="7">
         <v>30</v>
       </c>
-      <c r="AB135">
-        <f t="shared" si="6"/>
+      <c r="AB135" s="7">
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA135" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Equipamento03"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="24">
-      <filters>
-        <filter val="Ativo3- REALIZAR LIMPEZA NOS BICOS INJETORES DE GÁS (2S)"/>
-        <filter val="Ativo3- VERIFICAR E LIMPAR CATALIZADOR, FLAMES E QUEIMADORES (SUPERIOR E INFERIOR), VERIFICAR RESISTÊNCIA (SUPERIOR E INFERIOR). (2S)"/>
-        <filter val="Ativo3- VERIFICAR E REALIZAR LIMPEZA NO SENSOR DE CHAMAS (2S)"/>
-        <filter val="Ativo3- VERIFICAR MOTOR DE ESTEIRA, VERIFICAR E REALIZAR APERTO ENGRENAGEM, CORRENTE E O MOTOR (COLOCAR CORRENTE MEDIDA (AMPERAGEM)) (12S)"/>
-        <filter val="Ativo3- VERIFICAR VAZAMENTO DE GÁS NA MANGUEIRA E NECESSÁRIO EFETUAR TROCA (2S)"/>
-        <filter val="Ativo3- VERIFICAR VAZAMENTO NA MANGUEIRA DE GÁS E, NECESSÁRIO, EFETUAR TROCA (2S)"/>
-        <filter val="Ativo3- VERIFICAR VELA DE INCANDESCÊNCIA (12S)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AA135" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
